--- a/info/桌游表格.xlsx
+++ b/info/桌游表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\felix\cc\boardGame\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22603C6-42DA-47E6-BD6E-541FB6309FFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801FE601-EDD6-4926-B600-A0A35BEAD791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" activeTab="6" xr2:uid="{454FEC03-9801-49D0-A78C-438D7E92AF31}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="107">
   <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,9 @@
     <t/>
   </si>
   <si>
+    <t>round</t>
+  </si>
+  <si>
     <t>Railroad Ink:Deep Blue Edition(2018)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,6 +441,10 @@
     <t>____
 --
 ____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="152">
+  <borders count="153">
     <border>
       <left/>
       <right/>
@@ -2698,13 +2705,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4179,6 +4197,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35766,7 +35838,7 @@
   <dimension ref="B1:AJ52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO23" sqref="AO23"/>
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -35777,7 +35849,7 @@
     <row r="1" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="425" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="426"/>
       <c r="D2" s="426"/>
@@ -35795,7 +35867,7 @@
       <c r="P2" s="426"/>
       <c r="Q2" s="427"/>
       <c r="S2" s="425" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T2" s="426"/>
       <c r="U2" s="426"/>
@@ -35882,66 +35954,68 @@
       <c r="AH4" s="433"/>
     </row>
     <row r="5" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="434" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="435"/>
-      <c r="D5" s="435"/>
-      <c r="E5" s="436"/>
-      <c r="G5" s="434" t="s">
+      <c r="B5" s="497"/>
+      <c r="C5" s="499" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="435"/>
-      <c r="I5" s="436"/>
-      <c r="J5" s="437"/>
-      <c r="K5" s="434" t="s">
+      <c r="D5" s="440"/>
+      <c r="E5" s="440"/>
+      <c r="F5" s="440"/>
+      <c r="G5" s="441"/>
+      <c r="H5" s="499" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="436"/>
-      <c r="N5" s="438"/>
-      <c r="O5" s="439" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="440"/>
-      <c r="Q5" s="441"/>
+      <c r="I5" s="440"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="440"/>
+      <c r="L5" s="441"/>
+      <c r="M5" s="500" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="501"/>
+      <c r="O5" s="501"/>
+      <c r="P5" s="502"/>
+      <c r="Q5" s="492"/>
       <c r="S5" s="434" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T5" s="435"/>
       <c r="U5" s="435"/>
       <c r="V5" s="436"/>
       <c r="X5" s="434" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y5" s="435"/>
       <c r="Z5" s="436"/>
       <c r="AA5" s="437"/>
       <c r="AB5" s="434" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC5" s="436"/>
       <c r="AE5" s="438"/>
       <c r="AF5" s="439" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" s="440"/>
       <c r="AH5" s="441"/>
     </row>
     <row r="6" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="442"/>
-      <c r="C6" s="443"/>
-      <c r="D6" s="443"/>
-      <c r="E6" s="444"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="444"/>
-      <c r="J6" s="437"/>
-      <c r="K6" s="442"/>
-      <c r="L6" s="444"/>
-      <c r="N6" s="437"/>
-      <c r="O6" s="434"/>
-      <c r="P6" s="435"/>
-      <c r="Q6" s="436"/>
+      <c r="B6" s="493"/>
+      <c r="C6" s="434"/>
+      <c r="D6" s="498"/>
+      <c r="E6" s="498"/>
+      <c r="F6" s="498"/>
+      <c r="G6" s="436"/>
+      <c r="H6" s="434"/>
+      <c r="I6" s="498"/>
+      <c r="J6" s="498"/>
+      <c r="K6" s="498"/>
+      <c r="L6" s="436"/>
+      <c r="M6" s="503"/>
+      <c r="N6" s="504"/>
+      <c r="O6" s="504"/>
+      <c r="P6" s="505"/>
+      <c r="Q6" s="494"/>
       <c r="S6" s="442"/>
       <c r="T6" s="443"/>
       <c r="U6" s="443"/>
@@ -35959,10 +36033,21 @@
     </row>
     <row r="7" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="445"/>
-      <c r="N7" s="446"/>
-      <c r="O7" s="434"/>
-      <c r="P7" s="435"/>
-      <c r="Q7" s="436"/>
+      <c r="C7" s="442"/>
+      <c r="D7" s="443"/>
+      <c r="E7" s="443"/>
+      <c r="F7" s="443"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="442"/>
+      <c r="I7" s="443"/>
+      <c r="J7" s="443"/>
+      <c r="K7" s="443"/>
+      <c r="L7" s="444"/>
+      <c r="M7" s="506"/>
+      <c r="N7" s="507"/>
+      <c r="O7" s="507"/>
+      <c r="P7" s="508"/>
+      <c r="Q7" s="494"/>
       <c r="S7" s="445"/>
       <c r="AE7" s="446"/>
       <c r="AF7" s="434"/>
@@ -35972,77 +36057,79 @@
     <row r="8" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="445"/>
       <c r="C8" s="447" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="449" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="449" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="449" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="449" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="450" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="451" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="442"/>
-      <c r="P8" s="443"/>
-      <c r="Q8" s="444"/>
+      <c r="O8" s="495" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="496"/>
+      <c r="Q8" s="509"/>
       <c r="S8" s="445"/>
       <c r="T8" s="447" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="V8" s="449" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="X8" s="449" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="Z8" s="449" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="AB8" s="449" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC8" s="448" t="s">
         <v>0</v>
       </c>
       <c r="AD8" s="450" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE8" s="451" t="s">
         <v>1</v>
@@ -36210,29 +36297,29 @@
     <row r="11" spans="2:34" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="445"/>
       <c r="E11" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="463"/>
       <c r="I11" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J11" s="463"/>
       <c r="M11" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N11" s="463"/>
       <c r="Q11" s="465"/>
       <c r="S11" s="445"/>
       <c r="V11" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W11" s="463"/>
       <c r="Z11" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA11" s="463"/>
       <c r="AD11" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE11" s="463"/>
       <c r="AH11" s="465"/>
@@ -36307,7 +36394,7 @@
     </row>
     <row r="14" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="471" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="468"/>
       <c r="D14" s="469"/>
@@ -36324,10 +36411,10 @@
       <c r="O14" s="469"/>
       <c r="P14" s="470"/>
       <c r="Q14" s="472" t="s">
+        <v>104</v>
+      </c>
+      <c r="S14" s="471" t="s">
         <v>103</v>
-      </c>
-      <c r="S14" s="471" t="s">
-        <v>102</v>
       </c>
       <c r="T14" s="468"/>
       <c r="U14" s="469"/>
@@ -36344,7 +36431,7 @@
       <c r="AF14" s="469"/>
       <c r="AG14" s="470"/>
       <c r="AH14" s="472" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -36451,7 +36538,7 @@
     </row>
     <row r="18" spans="2:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="483" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="468"/>
       <c r="D18" s="469"/>
@@ -36468,10 +36555,10 @@
       <c r="O18" s="469"/>
       <c r="P18" s="470"/>
       <c r="Q18" s="484" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S18" s="483" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T18" s="468"/>
       <c r="U18" s="469"/>
@@ -36488,7 +36575,7 @@
       <c r="AF18" s="469"/>
       <c r="AG18" s="470"/>
       <c r="AH18" s="484" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -36595,7 +36682,7 @@
     </row>
     <row r="22" spans="2:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="471" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="468"/>
       <c r="D22" s="469"/>
@@ -36612,10 +36699,10 @@
       <c r="O22" s="469"/>
       <c r="P22" s="470"/>
       <c r="Q22" s="472" t="s">
+        <v>104</v>
+      </c>
+      <c r="S22" s="471" t="s">
         <v>103</v>
-      </c>
-      <c r="S22" s="471" t="s">
-        <v>102</v>
       </c>
       <c r="T22" s="468"/>
       <c r="U22" s="469"/>
@@ -36632,7 +36719,7 @@
       <c r="AF22" s="469"/>
       <c r="AG22" s="470"/>
       <c r="AH22" s="472" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -36743,19 +36830,19 @@
       <c r="C26" s="432"/>
       <c r="D26" s="432"/>
       <c r="E26" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="463"/>
       <c r="G26" s="432"/>
       <c r="H26" s="432"/>
       <c r="I26" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J26" s="463"/>
       <c r="K26" s="432"/>
       <c r="L26" s="432"/>
       <c r="M26" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N26" s="463"/>
       <c r="O26" s="432"/>
@@ -36765,19 +36852,19 @@
       <c r="T26" s="432"/>
       <c r="U26" s="432"/>
       <c r="V26" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W26" s="463"/>
       <c r="X26" s="432"/>
       <c r="Y26" s="432"/>
       <c r="Z26" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA26" s="463"/>
       <c r="AB26" s="432"/>
       <c r="AC26" s="432"/>
       <c r="AD26" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE26" s="463"/>
       <c r="AF26" s="432"/>
@@ -36787,7 +36874,7 @@
     <row r="27" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="425" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="426"/>
       <c r="D28" s="426"/>
@@ -36805,7 +36892,7 @@
       <c r="P28" s="426"/>
       <c r="Q28" s="427"/>
       <c r="S28" s="425" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T28" s="426"/>
       <c r="U28" s="426"/>
@@ -36893,46 +36980,46 @@
     </row>
     <row r="31" spans="2:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="434" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="435"/>
       <c r="D31" s="435"/>
       <c r="E31" s="436"/>
       <c r="G31" s="434" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" s="435"/>
       <c r="I31" s="436"/>
       <c r="J31" s="437"/>
       <c r="K31" s="434" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L31" s="436"/>
       <c r="N31" s="438"/>
       <c r="O31" s="439" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P31" s="440"/>
       <c r="Q31" s="441"/>
       <c r="S31" s="434" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T31" s="435"/>
       <c r="U31" s="435"/>
       <c r="V31" s="436"/>
       <c r="X31" s="434" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y31" s="435"/>
       <c r="Z31" s="436"/>
       <c r="AA31" s="437"/>
       <c r="AB31" s="434" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC31" s="436"/>
       <c r="AE31" s="438"/>
       <c r="AF31" s="439" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG31" s="440"/>
       <c r="AH31" s="441"/>
@@ -36982,37 +37069,37 @@
     <row r="34" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="445"/>
       <c r="C34" s="447" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="449" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="G34" s="449" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="I34" s="449" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="K34" s="449" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="M34" s="450" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N34" s="451" t="s">
         <v>1</v>
@@ -37022,37 +37109,37 @@
       <c r="Q34" s="444"/>
       <c r="S34" s="445"/>
       <c r="T34" s="447" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="V34" s="449" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="X34" s="449" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="Z34" s="449" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="AB34" s="449" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC34" s="448" t="s">
         <v>0</v>
       </c>
       <c r="AD34" s="450" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE34" s="451" t="s">
         <v>1</v>
@@ -37220,29 +37307,29 @@
     <row r="37" spans="2:34" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="445"/>
       <c r="E37" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F37" s="463"/>
       <c r="I37" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J37" s="463"/>
       <c r="M37" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N37" s="463"/>
       <c r="Q37" s="465"/>
       <c r="S37" s="445"/>
       <c r="V37" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W37" s="463"/>
       <c r="Z37" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA37" s="463"/>
       <c r="AD37" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE37" s="463"/>
       <c r="AH37" s="465"/>
@@ -37317,7 +37404,7 @@
     </row>
     <row r="40" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="471" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="468"/>
       <c r="D40" s="469"/>
@@ -37334,10 +37421,10 @@
       <c r="O40" s="469"/>
       <c r="P40" s="470"/>
       <c r="Q40" s="472" t="s">
+        <v>104</v>
+      </c>
+      <c r="S40" s="471" t="s">
         <v>103</v>
-      </c>
-      <c r="S40" s="471" t="s">
-        <v>102</v>
       </c>
       <c r="T40" s="468"/>
       <c r="U40" s="469"/>
@@ -37354,7 +37441,7 @@
       <c r="AF40" s="469"/>
       <c r="AG40" s="470"/>
       <c r="AH40" s="472" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -37461,7 +37548,7 @@
     </row>
     <row r="44" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="483" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="468"/>
       <c r="D44" s="469"/>
@@ -37478,10 +37565,10 @@
       <c r="O44" s="469"/>
       <c r="P44" s="470"/>
       <c r="Q44" s="484" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S44" s="483" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T44" s="468"/>
       <c r="U44" s="469"/>
@@ -37498,7 +37585,7 @@
       <c r="AF44" s="469"/>
       <c r="AG44" s="470"/>
       <c r="AH44" s="484" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -37605,7 +37692,7 @@
     </row>
     <row r="48" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="471" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="468"/>
       <c r="D48" s="469"/>
@@ -37622,10 +37709,10 @@
       <c r="O48" s="469"/>
       <c r="P48" s="470"/>
       <c r="Q48" s="472" t="s">
+        <v>104</v>
+      </c>
+      <c r="S48" s="471" t="s">
         <v>103</v>
-      </c>
-      <c r="S48" s="471" t="s">
-        <v>102</v>
       </c>
       <c r="T48" s="468"/>
       <c r="U48" s="469"/>
@@ -37642,7 +37729,7 @@
       <c r="AF48" s="469"/>
       <c r="AG48" s="470"/>
       <c r="AH48" s="472" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -37752,19 +37839,19 @@
       <c r="C52" s="432"/>
       <c r="D52" s="432"/>
       <c r="E52" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F52" s="463"/>
       <c r="G52" s="432"/>
       <c r="H52" s="432"/>
       <c r="I52" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J52" s="463"/>
       <c r="K52" s="432"/>
       <c r="L52" s="432"/>
       <c r="M52" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N52" s="463"/>
       <c r="O52" s="432"/>
@@ -37774,19 +37861,19 @@
       <c r="T52" s="432"/>
       <c r="U52" s="432"/>
       <c r="V52" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W52" s="463"/>
       <c r="X52" s="432"/>
       <c r="Y52" s="432"/>
       <c r="Z52" s="462" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA52" s="463"/>
       <c r="AB52" s="432"/>
       <c r="AC52" s="432"/>
       <c r="AD52" s="464" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE52" s="463"/>
       <c r="AF52" s="432"/>
@@ -37804,14 +37891,14 @@
     <mergeCell ref="AF9:AG9"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="S2:AH2"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="K5:L6"/>
     <mergeCell ref="S5:V6"/>
     <mergeCell ref="X5:Z6"/>
     <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="O5:Q8"/>
     <mergeCell ref="AF5:AH8"/>
+    <mergeCell ref="C5:G7"/>
+    <mergeCell ref="H5:L7"/>
+    <mergeCell ref="M5:P7"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="M11:N11"/>
@@ -38086,6 +38173,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/info/桌游表格.xlsx
+++ b/info/桌游表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\felix\cc\boardGame\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801FE601-EDD6-4926-B600-A0A35BEAD791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE5E4FB-ADC6-47E6-A9E1-40E51281A103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" activeTab="6" xr2:uid="{454FEC03-9801-49D0-A78C-438D7E92AF31}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="105">
   <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,35 +374,14 @@
     <t/>
   </si>
   <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>Railroad Ink:Deep Blue Edition(2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>+</t>
   </si>
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total
-point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -447,12 +426,24 @@
     <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>group+round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Railroad Ink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knI daorliaR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +712,22 @@
     </font>
     <font>
       <sz val="6"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -796,7 +803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="153">
+  <borders count="155">
     <border>
       <left/>
       <right/>
@@ -2716,13 +2723,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3998,115 +4031,94 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4118,140 +4130,116 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10209,13 +10197,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10258,13 +10246,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177505</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10308,13 +10296,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>4185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10358,13 +10346,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>182418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10408,13 +10396,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>77972</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10458,13 +10446,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>14767</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10506,18 +10494,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
+        <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C63FC9B-A768-4D16-84D0-8E53A20E394D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF70A0B-3573-4634-8C42-E12BF9397DF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10539,7 +10527,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263900" y="361950"/>
+          <a:off x="241300" y="184150"/>
           <a:ext cx="381000" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10551,18 +10539,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368004" cy="355600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
+        <xdr:cNvPr id="51" name="图片 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D205EA3-EAE4-4FE9-8CD6-922709A9DF02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70937B7A-A390-490E-A5B7-856B9B61DDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10584,7 +10572,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721101" y="368300"/>
+          <a:off x="698501" y="184150"/>
           <a:ext cx="368004" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10596,18 +10584,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="374650" cy="366135"/>
+    <xdr:ext cx="374650" cy="359785"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
+        <xdr:cNvPr id="52" name="图片 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ACE58C-7594-49D2-B658-D43EE7F7A8CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838ED7E0-BD5D-4357-AD18-E1654A99145D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10629,8 +10617,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4178300" y="374650"/>
-          <a:ext cx="374650" cy="366135"/>
+          <a:off x="1155700" y="190500"/>
+          <a:ext cx="374650" cy="359785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10641,18 +10629,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355600" cy="347518"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
+        <xdr:cNvPr id="53" name="图片 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D5CB10-E3AF-4A97-9FF1-14F9C67EB828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C35CAF-C530-48F1-8055-2E7D2014C042}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10674,7 +10662,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="381000"/>
+          <a:off x="1606550" y="196850"/>
           <a:ext cx="355600" cy="347518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10686,18 +10674,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="357372" cy="349250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
+        <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5D2704-90ED-4037-A39C-5409252BA3E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0D23C4-DC87-4E55-8E0F-77C5A81622BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10719,7 +10707,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5054600" y="368300"/>
+          <a:off x="2032000" y="184150"/>
           <a:ext cx="357372" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10731,18 +10719,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="370367" cy="361950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
+        <xdr:cNvPr id="55" name="图片 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD25680D-0A20-45F8-A707-9FACB3F1BD1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED7C8BE-64CD-4841-83CD-C98106DDB1B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10764,7 +10752,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511800" y="368300"/>
+          <a:off x="2489200" y="184150"/>
           <a:ext cx="370367" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10776,18 +10764,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
+        <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007657A4-6DE5-4D25-9B79-4EF93EFF55A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73648DAC-FFEE-432E-A99C-7DD240DDAE70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10809,7 +10797,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="5086350"/>
+          <a:off x="241300" y="184150"/>
           <a:ext cx="381000" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10821,18 +10809,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368004" cy="355600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14">
+        <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C8C109-308F-44C9-B651-F2DCEA1624AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E661444-1E9D-4093-B0F7-4FE0278500AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10854,7 +10842,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698501" y="5092700"/>
+          <a:off x="698501" y="184150"/>
           <a:ext cx="368004" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10866,18 +10854,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="374650" cy="366135"/>
+    <xdr:ext cx="374650" cy="359785"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
+        <xdr:cNvPr id="58" name="图片 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC05D9C-A84F-403E-8AB6-341D0C1DA8F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF9C661-F81F-46CE-8746-C2D6BA31EC31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10899,8 +10887,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1155700" y="5099050"/>
-          <a:ext cx="374650" cy="366135"/>
+          <a:off x="1155700" y="190500"/>
+          <a:ext cx="374650" cy="359785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10911,18 +10899,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355600" cy="347518"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16">
+        <xdr:cNvPr id="59" name="图片 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D45D77-8867-4C54-AADE-D6BD78D4BD7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A29C41B-704E-45DE-A034-55CFE22D9206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10944,7 +10932,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1606550" y="5105400"/>
+          <a:off x="1606550" y="196850"/>
           <a:ext cx="355600" cy="347518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10956,18 +10944,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="357372" cy="349250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17">
+        <xdr:cNvPr id="60" name="图片 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B9B26E-3D30-44F9-8FE3-0B751EB6117F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524EE596-2728-4324-9398-F847CDE8798B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10989,7 +10977,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2032000" y="5092700"/>
+          <a:off x="2032000" y="184150"/>
           <a:ext cx="357372" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11001,18 +10989,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="370367" cy="361950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18">
+        <xdr:cNvPr id="61" name="图片 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C760BAD1-95DF-4622-8C3A-CE179AB5ECD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462A06D4-2E00-45C5-84A0-4D7C71236592}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11034,7 +11022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2489200" y="5092700"/>
+          <a:off x="2489200" y="184150"/>
           <a:ext cx="370367" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11048,16 +11036,16 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19">
+        <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF341BC-8310-4017-AB21-2F80F9C2C7E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACF2873-6386-4D7D-A20C-5777DB88515B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11079,7 +11067,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263900" y="5086350"/>
+          <a:off x="241300" y="4356100"/>
           <a:ext cx="381000" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11093,16 +11081,16 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368004" cy="355600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20">
+        <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DC8768-F13D-410A-8A27-913FA841E249}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7581505C-C1D6-4FEC-8171-D1287383830A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11124,7 +11112,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721101" y="5092700"/>
+          <a:off x="698501" y="4356100"/>
           <a:ext cx="368004" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11138,16 +11126,16 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="374650" cy="366135"/>
+    <xdr:ext cx="374650" cy="359785"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21">
+        <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2193589-CA4C-4B49-80A2-3718A8A2BC21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC022B54-46A6-455E-8AB5-D755682D5970}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11169,8 +11157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4178300" y="5099050"/>
-          <a:ext cx="374650" cy="366135"/>
+          <a:off x="1155700" y="4362450"/>
+          <a:ext cx="374650" cy="359785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11183,16 +11171,16 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355600" cy="347518"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22">
+        <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE47F40-8588-4A57-954A-E5E61122ED1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29E0D4C-922B-40B7-880A-46BB0AB7FC82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11214,7 +11202,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="5105400"/>
+          <a:off x="1606550" y="4368800"/>
           <a:ext cx="355600" cy="347518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11228,16 +11216,16 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="357372" cy="349250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23">
+        <xdr:cNvPr id="66" name="图片 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B988CF-8295-4F31-9225-5057670B9A58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E97FD94-D53C-4EC2-AB16-5C37C8A6E97C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11259,7 +11247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5054600" y="5092700"/>
+          <a:off x="2032000" y="4356100"/>
           <a:ext cx="357372" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11273,16 +11261,16 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="370367" cy="361950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24">
+        <xdr:cNvPr id="67" name="图片 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27D6698-12C5-46EF-B05F-F964BE9751B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8550EE-E912-4648-BF7D-9E444E5410B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11304,7 +11292,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511800" y="5092700"/>
+          <a:off x="2489200" y="4356100"/>
           <a:ext cx="370367" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11316,18 +11304,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25">
+        <xdr:cNvPr id="68" name="图片 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB2C8C7-047F-4B56-A705-E8E32443F4E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09665CA0-D369-45D1-AF41-6571E3914497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11349,7 +11337,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263900" y="361950"/>
+          <a:off x="241300" y="184150"/>
           <a:ext cx="381000" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11361,18 +11349,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368004" cy="355600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26">
+        <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C47FAF-7B50-4B2C-A309-FCF29514979E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F1559C-DED0-4CBD-879B-28012E99AA41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11394,7 +11382,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721101" y="368300"/>
+          <a:off x="698501" y="184150"/>
           <a:ext cx="368004" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11406,18 +11394,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="374650" cy="366135"/>
+    <xdr:ext cx="374650" cy="359785"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27">
+        <xdr:cNvPr id="70" name="图片 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0EA75D-1105-47A0-9E6D-446133E973F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A43C87-557D-4CF2-AD0F-5AE699B5D41C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11439,8 +11427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4178300" y="374650"/>
-          <a:ext cx="374650" cy="366135"/>
+          <a:off x="1155700" y="190500"/>
+          <a:ext cx="374650" cy="359785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11451,18 +11439,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355600" cy="347518"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28">
+        <xdr:cNvPr id="71" name="图片 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63449A56-A896-4E3B-B61E-262EA6C97BA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFAEC210-5084-4D5E-A67A-E1AE9BA81E99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11484,7 +11472,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="381000"/>
+          <a:off x="1606550" y="196850"/>
           <a:ext cx="355600" cy="347518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11496,18 +11484,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="357372" cy="349250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29">
+        <xdr:cNvPr id="72" name="图片 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258E1CBB-0F7A-4FB6-9394-E6EAFE6A1022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A1AA1A-5B10-44ED-B149-F153C92A57F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11529,7 +11517,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5054600" y="368300"/>
+          <a:off x="2032000" y="184150"/>
           <a:ext cx="357372" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11541,18 +11529,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="370367" cy="361950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30">
+        <xdr:cNvPr id="73" name="图片 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D58723-F784-4462-A106-7DE620423040}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD0D76D-346B-44A5-953B-28A65A050021}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11574,7 +11562,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511800" y="368300"/>
+          <a:off x="2489200" y="184150"/>
           <a:ext cx="370367" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11586,18 +11574,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="图片 31">
+        <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E9EE16-7FEE-4D6E-95C6-06D66BEFB124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A57121-D38E-46EA-86D3-9A32A5E29FCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11619,7 +11607,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263900" y="5086350"/>
+          <a:off x="241300" y="4356100"/>
           <a:ext cx="381000" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11631,18 +11619,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368004" cy="355600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="图片 32">
+        <xdr:cNvPr id="75" name="图片 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F46725D-13CD-4026-B48D-9693F211AF62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C7EE3F-8413-4F6C-A73D-99A8AA51CE91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11664,7 +11652,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721101" y="5092700"/>
+          <a:off x="698501" y="4356100"/>
           <a:ext cx="368004" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11676,18 +11664,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="374650" cy="366135"/>
+    <xdr:ext cx="374650" cy="359785"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="图片 33">
+        <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEDCEF4-D8E8-47DB-BED9-BEA63A34D744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABECD73-1567-4624-87EB-EA32A0FD13B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11709,8 +11697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4178300" y="5099050"/>
-          <a:ext cx="374650" cy="366135"/>
+          <a:off x="1155700" y="4362450"/>
+          <a:ext cx="374650" cy="359785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11721,18 +11709,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355600" cy="347518"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34">
+        <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FEECE0-E7A4-4F02-9D77-5C9699EEEBB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4D9AD4-B885-4619-8F47-EAD40C90C826}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11754,7 +11742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="5105400"/>
+          <a:off x="1606550" y="4368800"/>
           <a:ext cx="355600" cy="347518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11766,18 +11754,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="357372" cy="349250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="图片 35">
+        <xdr:cNvPr id="78" name="图片 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199F0E14-1BEC-4107-8C5D-C7763C69A17E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD94E4F5-B535-41B8-97A3-113BFFCCB4C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11799,7 +11787,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5054600" y="5092700"/>
+          <a:off x="2032000" y="4356100"/>
           <a:ext cx="357372" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11811,18 +11799,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="370367" cy="361950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36">
+        <xdr:cNvPr id="79" name="图片 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF44634-1EAC-4DDA-A559-DCEB2119A322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B01396-C40B-4945-A05E-54F2132E756F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11844,277 +11832,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511800" y="5092700"/>
-          <a:ext cx="370367" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="381000" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="图片 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6CAAC3-4410-4793-98FC-423F4F2107C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="241300" y="5086350"/>
-          <a:ext cx="381000" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368004" cy="355600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="图片 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADF3CD5-733E-4BD5-931F-4B88637D35E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="698501" y="5092700"/>
-          <a:ext cx="368004" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="374650" cy="366135"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="图片 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9ED153-6A5D-45C3-A69D-355C94E5D161}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1155700" y="5099050"/>
-          <a:ext cx="374650" cy="366135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="355600" cy="347518"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图片 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC62BA12-73A0-404A-AF50-5352E10E632C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1606550" y="5105400"/>
-          <a:ext cx="355600" cy="347518"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="357372" cy="349250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图片 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A8E6AD-3B1C-4854-BD02-7CEA2DCDB16B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2032000" y="5092700"/>
-          <a:ext cx="357372" cy="349250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="370367" cy="361950"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="图片 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330FDD80-A4D1-4C69-B4DF-5B21E08C69C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2489200" y="5092700"/>
+          <a:off x="2489200" y="4356100"/>
           <a:ext cx="370367" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -35835,2228 +35553,3265 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65CC7B-DFD6-490F-9FD4-35FD7514D21E}">
-  <dimension ref="B1:AJ52"/>
+  <dimension ref="B1:BB46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+      <selection activeCell="BC14" sqref="BC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="35" width="2.33203125" customWidth="1"/>
+    <col min="1" max="17" width="2.33203125" customWidth="1"/>
+    <col min="18" max="18" width="6.1640625" customWidth="1"/>
+    <col min="19" max="34" width="2.33203125" customWidth="1"/>
+    <col min="35" max="35" width="6.1640625" customWidth="1"/>
+    <col min="36" max="53" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="425" t="s">
+    <row r="1" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B2" s="451"/>
+      <c r="C2" s="470"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="470"/>
+      <c r="G2" s="470"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="470"/>
+      <c r="J2" s="470"/>
+      <c r="K2" s="470"/>
+      <c r="L2" s="470"/>
+      <c r="M2" s="470"/>
+      <c r="N2" s="470"/>
+      <c r="O2" s="470"/>
+      <c r="P2" s="470"/>
+      <c r="Q2" s="471"/>
+      <c r="S2" s="451"/>
+      <c r="T2" s="470"/>
+      <c r="U2" s="470"/>
+      <c r="V2" s="470"/>
+      <c r="W2" s="470"/>
+      <c r="X2" s="470"/>
+      <c r="Y2" s="470"/>
+      <c r="Z2" s="470"/>
+      <c r="AA2" s="470"/>
+      <c r="AB2" s="470"/>
+      <c r="AC2" s="470"/>
+      <c r="AD2" s="470"/>
+      <c r="AE2" s="470"/>
+      <c r="AF2" s="470"/>
+      <c r="AG2" s="470"/>
+      <c r="AH2" s="471"/>
+      <c r="AJ2" s="451"/>
+      <c r="AK2" s="470"/>
+      <c r="AL2" s="470"/>
+      <c r="AM2" s="470"/>
+      <c r="AN2" s="470"/>
+      <c r="AO2" s="470"/>
+      <c r="AP2" s="470"/>
+      <c r="AQ2" s="470"/>
+      <c r="AR2" s="470"/>
+      <c r="AS2" s="470"/>
+      <c r="AT2" s="470"/>
+      <c r="AU2" s="470"/>
+      <c r="AV2" s="470"/>
+      <c r="AW2" s="470"/>
+      <c r="AX2" s="470"/>
+      <c r="AY2" s="471"/>
+      <c r="AZ2" s="480"/>
+    </row>
+    <row r="3" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="453"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="472"/>
+      <c r="F3" s="472"/>
+      <c r="G3" s="472"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="472"/>
+      <c r="J3" s="472"/>
+      <c r="K3" s="472"/>
+      <c r="L3" s="472"/>
+      <c r="M3" s="472"/>
+      <c r="N3" s="472"/>
+      <c r="O3" s="472"/>
+      <c r="P3" s="472"/>
+      <c r="Q3" s="473"/>
+      <c r="S3" s="453"/>
+      <c r="T3" s="472"/>
+      <c r="U3" s="472"/>
+      <c r="V3" s="472"/>
+      <c r="W3" s="472"/>
+      <c r="X3" s="472"/>
+      <c r="Y3" s="472"/>
+      <c r="Z3" s="472"/>
+      <c r="AA3" s="472"/>
+      <c r="AB3" s="472"/>
+      <c r="AC3" s="472"/>
+      <c r="AD3" s="472"/>
+      <c r="AE3" s="472"/>
+      <c r="AF3" s="472"/>
+      <c r="AG3" s="472"/>
+      <c r="AH3" s="473"/>
+      <c r="AJ3" s="453"/>
+      <c r="AK3" s="472"/>
+      <c r="AL3" s="472"/>
+      <c r="AM3" s="472"/>
+      <c r="AN3" s="472"/>
+      <c r="AO3" s="472"/>
+      <c r="AP3" s="472"/>
+      <c r="AQ3" s="472"/>
+      <c r="AR3" s="472"/>
+      <c r="AS3" s="472"/>
+      <c r="AT3" s="472"/>
+      <c r="AU3" s="472"/>
+      <c r="AV3" s="472"/>
+      <c r="AW3" s="472"/>
+      <c r="AX3" s="472"/>
+      <c r="AY3" s="473"/>
+      <c r="AZ3" s="480"/>
+    </row>
+    <row r="4" spans="2:52" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="487" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="450" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="426"/>
-      <c r="D2" s="426"/>
-      <c r="E2" s="426"/>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="426"/>
-      <c r="I2" s="426"/>
-      <c r="J2" s="426"/>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="426"/>
-      <c r="O2" s="426"/>
-      <c r="P2" s="426"/>
-      <c r="Q2" s="427"/>
-      <c r="S2" s="425" t="s">
+      <c r="D4" s="463"/>
+      <c r="E4" s="463"/>
+      <c r="F4" s="463"/>
+      <c r="G4" s="463"/>
+      <c r="H4" s="463"/>
+      <c r="I4" s="463"/>
+      <c r="J4" s="463" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="463"/>
+      <c r="L4" s="463"/>
+      <c r="M4" s="463"/>
+      <c r="N4" s="463"/>
+      <c r="O4" s="463"/>
+      <c r="P4" s="463"/>
+      <c r="Q4" s="484" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="487" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="450" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="426"/>
-      <c r="U2" s="426"/>
-      <c r="V2" s="426"/>
-      <c r="W2" s="426"/>
-      <c r="X2" s="426"/>
-      <c r="Y2" s="426"/>
-      <c r="Z2" s="426"/>
-      <c r="AA2" s="426"/>
-      <c r="AB2" s="426"/>
-      <c r="AC2" s="426"/>
-      <c r="AD2" s="426"/>
-      <c r="AE2" s="426"/>
-      <c r="AF2" s="426"/>
-      <c r="AG2" s="426"/>
-      <c r="AH2" s="427"/>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="428"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="429"/>
-      <c r="E3" s="429"/>
-      <c r="F3" s="429"/>
-      <c r="G3" s="429"/>
-      <c r="H3" s="429"/>
-      <c r="I3" s="429"/>
-      <c r="J3" s="429"/>
-      <c r="K3" s="429"/>
-      <c r="L3" s="429"/>
-      <c r="M3" s="429"/>
-      <c r="N3" s="429"/>
-      <c r="O3" s="429"/>
-      <c r="P3" s="429"/>
-      <c r="Q3" s="430"/>
-      <c r="S3" s="428"/>
-      <c r="T3" s="429"/>
-      <c r="U3" s="429"/>
-      <c r="V3" s="429"/>
-      <c r="W3" s="429"/>
-      <c r="X3" s="429"/>
-      <c r="Y3" s="429"/>
-      <c r="Z3" s="429"/>
-      <c r="AA3" s="429"/>
-      <c r="AB3" s="429"/>
-      <c r="AC3" s="429"/>
-      <c r="AD3" s="429"/>
-      <c r="AE3" s="429"/>
-      <c r="AF3" s="429"/>
-      <c r="AG3" s="429"/>
-      <c r="AH3" s="430"/>
-    </row>
-    <row r="4" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="431"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="432"/>
-      <c r="F4" s="432"/>
-      <c r="G4" s="432"/>
-      <c r="H4" s="432"/>
-      <c r="I4" s="432"/>
-      <c r="J4" s="432"/>
-      <c r="K4" s="432"/>
-      <c r="L4" s="432"/>
-      <c r="M4" s="432"/>
-      <c r="N4" s="432"/>
-      <c r="O4" s="432"/>
-      <c r="P4" s="432"/>
-      <c r="Q4" s="433"/>
-      <c r="S4" s="431"/>
-      <c r="T4" s="432"/>
-      <c r="U4" s="432"/>
-      <c r="V4" s="432"/>
-      <c r="W4" s="432"/>
-      <c r="X4" s="432"/>
-      <c r="Y4" s="432"/>
-      <c r="Z4" s="432"/>
-      <c r="AA4" s="432"/>
-      <c r="AB4" s="432"/>
-      <c r="AC4" s="432"/>
-      <c r="AD4" s="432"/>
-      <c r="AE4" s="432"/>
-      <c r="AF4" s="432"/>
-      <c r="AG4" s="432"/>
-      <c r="AH4" s="433"/>
-    </row>
-    <row r="5" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="497"/>
-      <c r="C5" s="499" t="s">
+      <c r="U4" s="463"/>
+      <c r="V4" s="463"/>
+      <c r="W4" s="463"/>
+      <c r="X4" s="463"/>
+      <c r="Y4" s="463"/>
+      <c r="Z4" s="463"/>
+      <c r="AA4" s="463" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" s="463"/>
+      <c r="AC4" s="463"/>
+      <c r="AD4" s="463"/>
+      <c r="AE4" s="463"/>
+      <c r="AF4" s="463"/>
+      <c r="AG4" s="463"/>
+      <c r="AH4" s="484" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ4" s="487" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK4" s="450" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL4" s="463"/>
+      <c r="AM4" s="463"/>
+      <c r="AN4" s="463"/>
+      <c r="AO4" s="463"/>
+      <c r="AP4" s="463"/>
+      <c r="AQ4" s="463"/>
+      <c r="AR4" s="463" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS4" s="463"/>
+      <c r="AT4" s="463"/>
+      <c r="AU4" s="463"/>
+      <c r="AV4" s="463"/>
+      <c r="AW4" s="463"/>
+      <c r="AX4" s="463"/>
+      <c r="AY4" s="484" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ4" s="490"/>
+    </row>
+    <row r="5" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="488"/>
+      <c r="C5" s="454" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="440"/>
-      <c r="E5" s="440"/>
-      <c r="F5" s="440"/>
-      <c r="G5" s="441"/>
-      <c r="H5" s="499" t="s">
+      <c r="D5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="476" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="440"/>
-      <c r="J5" s="440"/>
-      <c r="K5" s="440"/>
-      <c r="L5" s="441"/>
-      <c r="M5" s="500" t="s">
+      <c r="H5" s="477" t="s">
         <v>90</v>
       </c>
-      <c r="N5" s="501"/>
-      <c r="O5" s="501"/>
-      <c r="P5" s="502"/>
-      <c r="Q5" s="492"/>
-      <c r="S5" s="434" t="s">
+      <c r="I5" s="474" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="479" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="435"/>
-      <c r="U5" s="435"/>
-      <c r="V5" s="436"/>
-      <c r="X5" s="434" t="s">
+      <c r="N5" s="476" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="464" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="464"/>
+      <c r="Q5" s="485"/>
+      <c r="S5" s="488"/>
+      <c r="T5" s="454" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="W5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="476" t="s">
         <v>93</v>
       </c>
-      <c r="Y5" s="435"/>
-      <c r="Z5" s="436"/>
-      <c r="AA5" s="437"/>
-      <c r="AB5" s="434" t="s">
+      <c r="Y5" s="477" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z5" s="474" t="s">
         <v>94</v>
       </c>
-      <c r="AC5" s="436"/>
-      <c r="AE5" s="438"/>
-      <c r="AF5" s="439" t="s">
+      <c r="AA5" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="474" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="440"/>
-      <c r="AH5" s="441"/>
-    </row>
-    <row r="6" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="493"/>
-      <c r="C6" s="434"/>
-      <c r="D6" s="498"/>
-      <c r="E6" s="498"/>
-      <c r="F6" s="498"/>
-      <c r="G6" s="436"/>
-      <c r="H6" s="434"/>
-      <c r="I6" s="498"/>
-      <c r="J6" s="498"/>
-      <c r="K6" s="498"/>
-      <c r="L6" s="436"/>
-      <c r="M6" s="503"/>
-      <c r="N6" s="504"/>
-      <c r="O6" s="504"/>
-      <c r="P6" s="505"/>
-      <c r="Q6" s="494"/>
-      <c r="S6" s="442"/>
-      <c r="T6" s="443"/>
-      <c r="U6" s="443"/>
-      <c r="V6" s="444"/>
-      <c r="X6" s="442"/>
-      <c r="Y6" s="443"/>
-      <c r="Z6" s="444"/>
-      <c r="AA6" s="437"/>
-      <c r="AB6" s="442"/>
-      <c r="AC6" s="444"/>
-      <c r="AE6" s="437"/>
-      <c r="AF6" s="434"/>
-      <c r="AG6" s="435"/>
-      <c r="AH6" s="436"/>
-    </row>
-    <row r="7" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="445"/>
-      <c r="C7" s="442"/>
-      <c r="D7" s="443"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="443"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="442"/>
-      <c r="I7" s="443"/>
-      <c r="J7" s="443"/>
-      <c r="K7" s="443"/>
-      <c r="L7" s="444"/>
-      <c r="M7" s="506"/>
-      <c r="N7" s="507"/>
-      <c r="O7" s="507"/>
-      <c r="P7" s="508"/>
-      <c r="Q7" s="494"/>
-      <c r="S7" s="445"/>
-      <c r="AE7" s="446"/>
-      <c r="AF7" s="434"/>
-      <c r="AG7" s="435"/>
-      <c r="AH7" s="436"/>
-    </row>
-    <row r="8" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="445"/>
-      <c r="C8" s="447" t="s">
+      <c r="AC5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="479" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE5" s="476" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="464" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG5" s="464"/>
+      <c r="AH5" s="485"/>
+      <c r="AJ5" s="488"/>
+      <c r="AK5" s="454" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="476" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP5" s="477" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ5" s="474" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR5" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT5" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="479" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV5" s="476" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="464" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX5" s="464"/>
+      <c r="AY5" s="485"/>
+      <c r="AZ5" s="491"/>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B6" s="488"/>
+      <c r="C6" s="481">
+        <v>2</v>
+      </c>
+      <c r="D6" s="468">
+        <v>3</v>
+      </c>
+      <c r="E6" s="468">
+        <v>4</v>
+      </c>
+      <c r="F6" s="468">
+        <v>5</v>
+      </c>
+      <c r="G6" s="468">
+        <v>6</v>
+      </c>
+      <c r="H6" s="468">
+        <v>7</v>
+      </c>
+      <c r="I6" s="468">
+        <v>8</v>
+      </c>
+      <c r="J6" s="468">
+        <v>9</v>
+      </c>
+      <c r="K6" s="465">
+        <v>10</v>
+      </c>
+      <c r="L6" s="465"/>
+      <c r="M6" s="465">
+        <v>11</v>
+      </c>
+      <c r="N6" s="465"/>
+      <c r="O6" s="466">
+        <v>12</v>
+      </c>
+      <c r="P6" s="467"/>
+      <c r="Q6" s="485"/>
+      <c r="S6" s="488"/>
+      <c r="T6" s="481">
+        <v>2</v>
+      </c>
+      <c r="U6" s="468">
+        <v>3</v>
+      </c>
+      <c r="V6" s="468">
+        <v>4</v>
+      </c>
+      <c r="W6" s="468">
+        <v>5</v>
+      </c>
+      <c r="X6" s="468">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="468">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="468">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="468">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="465">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="465"/>
+      <c r="AD6" s="465">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="465"/>
+      <c r="AF6" s="466">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="467"/>
+      <c r="AH6" s="485"/>
+      <c r="AJ6" s="488"/>
+      <c r="AK6" s="481">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="468">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="468">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="468">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="468">
+        <v>6</v>
+      </c>
+      <c r="AP6" s="468">
+        <v>7</v>
+      </c>
+      <c r="AQ6" s="468">
+        <v>8</v>
+      </c>
+      <c r="AR6" s="468">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="465">
+        <v>10</v>
+      </c>
+      <c r="AT6" s="465"/>
+      <c r="AU6" s="465">
+        <v>11</v>
+      </c>
+      <c r="AV6" s="465"/>
+      <c r="AW6" s="466">
+        <v>12</v>
+      </c>
+      <c r="AX6" s="467"/>
+      <c r="AY6" s="485"/>
+      <c r="AZ6" s="491"/>
+    </row>
+    <row r="7" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="488"/>
+      <c r="C7" s="482">
+        <v>4</v>
+      </c>
+      <c r="D7" s="469">
+        <v>8</v>
+      </c>
+      <c r="E7" s="469">
+        <v>12</v>
+      </c>
+      <c r="F7" s="469">
+        <v>16</v>
+      </c>
+      <c r="G7" s="469">
+        <v>20</v>
+      </c>
+      <c r="H7" s="469">
+        <v>24</v>
+      </c>
+      <c r="I7" s="469">
+        <v>28</v>
+      </c>
+      <c r="J7" s="469">
+        <v>32</v>
+      </c>
+      <c r="K7" s="428">
+        <v>36</v>
+      </c>
+      <c r="L7" s="428"/>
+      <c r="M7" s="428">
+        <v>40</v>
+      </c>
+      <c r="N7" s="428"/>
+      <c r="O7" s="428">
+        <v>45</v>
+      </c>
+      <c r="P7" s="429"/>
+      <c r="Q7" s="485"/>
+      <c r="S7" s="488"/>
+      <c r="T7" s="482">
+        <v>4</v>
+      </c>
+      <c r="U7" s="469">
+        <v>8</v>
+      </c>
+      <c r="V7" s="469">
+        <v>12</v>
+      </c>
+      <c r="W7" s="469">
+        <v>16</v>
+      </c>
+      <c r="X7" s="469">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="469">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="469">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="469">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="428">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="428"/>
+      <c r="AD7" s="428">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="428"/>
+      <c r="AF7" s="428">
+        <v>45</v>
+      </c>
+      <c r="AG7" s="429"/>
+      <c r="AH7" s="485"/>
+      <c r="AJ7" s="488"/>
+      <c r="AK7" s="482">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="469">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="469">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="469">
+        <v>16</v>
+      </c>
+      <c r="AO7" s="469">
+        <v>20</v>
+      </c>
+      <c r="AP7" s="469">
+        <v>24</v>
+      </c>
+      <c r="AQ7" s="469">
+        <v>28</v>
+      </c>
+      <c r="AR7" s="469">
+        <v>32</v>
+      </c>
+      <c r="AS7" s="428">
+        <v>36</v>
+      </c>
+      <c r="AT7" s="428"/>
+      <c r="AU7" s="428">
+        <v>40</v>
+      </c>
+      <c r="AV7" s="428"/>
+      <c r="AW7" s="428">
+        <v>45</v>
+      </c>
+      <c r="AX7" s="429"/>
+      <c r="AY7" s="485"/>
+      <c r="AZ7" s="491"/>
+    </row>
+    <row r="8" spans="2:52" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="488"/>
+      <c r="C8" s="480"/>
+      <c r="D8" s="480"/>
+      <c r="E8" s="455" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="448" t="s">
+      <c r="F8" s="456"/>
+      <c r="G8" s="480"/>
+      <c r="H8" s="480"/>
+      <c r="I8" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="456"/>
+      <c r="K8" s="480"/>
+      <c r="L8" s="480"/>
+      <c r="M8" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="456"/>
+      <c r="O8" s="480"/>
+      <c r="P8" s="480"/>
+      <c r="Q8" s="485"/>
+      <c r="S8" s="488"/>
+      <c r="T8" s="480"/>
+      <c r="U8" s="480"/>
+      <c r="V8" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="W8" s="456"/>
+      <c r="X8" s="480"/>
+      <c r="Y8" s="480"/>
+      <c r="Z8" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA8" s="456"/>
+      <c r="AB8" s="480"/>
+      <c r="AC8" s="480"/>
+      <c r="AD8" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE8" s="456"/>
+      <c r="AF8" s="480"/>
+      <c r="AG8" s="480"/>
+      <c r="AH8" s="485"/>
+      <c r="AJ8" s="488"/>
+      <c r="AK8" s="480"/>
+      <c r="AL8" s="480"/>
+      <c r="AM8" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN8" s="456"/>
+      <c r="AO8" s="480"/>
+      <c r="AP8" s="480"/>
+      <c r="AQ8" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR8" s="456"/>
+      <c r="AS8" s="480"/>
+      <c r="AT8" s="480"/>
+      <c r="AU8" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV8" s="456"/>
+      <c r="AW8" s="480"/>
+      <c r="AX8" s="480"/>
+      <c r="AY8" s="485"/>
+      <c r="AZ8" s="491"/>
+    </row>
+    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B9" s="488"/>
+      <c r="C9" s="483"/>
+      <c r="D9" s="425"/>
+      <c r="E9" s="425"/>
+      <c r="F9" s="425"/>
+      <c r="G9" s="425"/>
+      <c r="H9" s="425"/>
+      <c r="I9" s="425"/>
+      <c r="J9" s="425"/>
+      <c r="K9" s="425"/>
+      <c r="L9" s="425"/>
+      <c r="M9" s="425"/>
+      <c r="N9" s="425"/>
+      <c r="O9" s="425"/>
+      <c r="P9" s="430"/>
+      <c r="Q9" s="485"/>
+      <c r="S9" s="488"/>
+      <c r="T9" s="483"/>
+      <c r="U9" s="425"/>
+      <c r="V9" s="425"/>
+      <c r="W9" s="425"/>
+      <c r="X9" s="425"/>
+      <c r="Y9" s="425"/>
+      <c r="Z9" s="425"/>
+      <c r="AA9" s="425"/>
+      <c r="AB9" s="425"/>
+      <c r="AC9" s="425"/>
+      <c r="AD9" s="425"/>
+      <c r="AE9" s="425"/>
+      <c r="AF9" s="425"/>
+      <c r="AG9" s="430"/>
+      <c r="AH9" s="485"/>
+      <c r="AJ9" s="488"/>
+      <c r="AK9" s="483"/>
+      <c r="AL9" s="425"/>
+      <c r="AM9" s="425"/>
+      <c r="AN9" s="425"/>
+      <c r="AO9" s="425"/>
+      <c r="AP9" s="425"/>
+      <c r="AQ9" s="425"/>
+      <c r="AR9" s="425"/>
+      <c r="AS9" s="425"/>
+      <c r="AT9" s="425"/>
+      <c r="AU9" s="425"/>
+      <c r="AV9" s="425"/>
+      <c r="AW9" s="425"/>
+      <c r="AX9" s="430"/>
+      <c r="AY9" s="485"/>
+      <c r="AZ9" s="491"/>
+    </row>
+    <row r="10" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="489"/>
+      <c r="C10" s="439"/>
+      <c r="D10" s="432"/>
+      <c r="E10" s="432"/>
+      <c r="F10" s="432"/>
+      <c r="G10" s="432"/>
+      <c r="H10" s="432"/>
+      <c r="I10" s="432"/>
+      <c r="J10" s="432"/>
+      <c r="K10" s="432"/>
+      <c r="L10" s="432"/>
+      <c r="M10" s="432"/>
+      <c r="N10" s="432"/>
+      <c r="O10" s="432"/>
+      <c r="P10" s="433"/>
+      <c r="Q10" s="486"/>
+      <c r="S10" s="489"/>
+      <c r="T10" s="439"/>
+      <c r="U10" s="432"/>
+      <c r="V10" s="432"/>
+      <c r="W10" s="432"/>
+      <c r="X10" s="432"/>
+      <c r="Y10" s="432"/>
+      <c r="Z10" s="432"/>
+      <c r="AA10" s="432"/>
+      <c r="AB10" s="432"/>
+      <c r="AC10" s="432"/>
+      <c r="AD10" s="432"/>
+      <c r="AE10" s="432"/>
+      <c r="AF10" s="432"/>
+      <c r="AG10" s="433"/>
+      <c r="AH10" s="486"/>
+      <c r="AJ10" s="489"/>
+      <c r="AK10" s="439"/>
+      <c r="AL10" s="432"/>
+      <c r="AM10" s="432"/>
+      <c r="AN10" s="432"/>
+      <c r="AO10" s="432"/>
+      <c r="AP10" s="432"/>
+      <c r="AQ10" s="432"/>
+      <c r="AR10" s="432"/>
+      <c r="AS10" s="432"/>
+      <c r="AT10" s="432"/>
+      <c r="AU10" s="432"/>
+      <c r="AV10" s="432"/>
+      <c r="AW10" s="432"/>
+      <c r="AX10" s="433"/>
+      <c r="AY10" s="486"/>
+      <c r="AZ10" s="491"/>
+    </row>
+    <row r="11" spans="2:52" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="431"/>
+      <c r="D11" s="432"/>
+      <c r="E11" s="432"/>
+      <c r="F11" s="432"/>
+      <c r="G11" s="432"/>
+      <c r="H11" s="432"/>
+      <c r="I11" s="432"/>
+      <c r="J11" s="432"/>
+      <c r="K11" s="432"/>
+      <c r="L11" s="432"/>
+      <c r="M11" s="432"/>
+      <c r="N11" s="432"/>
+      <c r="O11" s="432"/>
+      <c r="P11" s="433"/>
+      <c r="Q11" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="431"/>
+      <c r="U11" s="432"/>
+      <c r="V11" s="432"/>
+      <c r="W11" s="432"/>
+      <c r="X11" s="432"/>
+      <c r="Y11" s="432"/>
+      <c r="Z11" s="432"/>
+      <c r="AA11" s="432"/>
+      <c r="AB11" s="432"/>
+      <c r="AC11" s="432"/>
+      <c r="AD11" s="432"/>
+      <c r="AE11" s="432"/>
+      <c r="AF11" s="432"/>
+      <c r="AG11" s="433"/>
+      <c r="AH11" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ11" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK11" s="431"/>
+      <c r="AL11" s="432"/>
+      <c r="AM11" s="432"/>
+      <c r="AN11" s="432"/>
+      <c r="AO11" s="432"/>
+      <c r="AP11" s="432"/>
+      <c r="AQ11" s="432"/>
+      <c r="AR11" s="432"/>
+      <c r="AS11" s="432"/>
+      <c r="AT11" s="432"/>
+      <c r="AU11" s="432"/>
+      <c r="AV11" s="432"/>
+      <c r="AW11" s="432"/>
+      <c r="AX11" s="433"/>
+      <c r="AY11" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ11" s="492"/>
+    </row>
+    <row r="12" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="461"/>
+      <c r="C12" s="431"/>
+      <c r="D12" s="432"/>
+      <c r="E12" s="432"/>
+      <c r="F12" s="432"/>
+      <c r="G12" s="434"/>
+      <c r="H12" s="434"/>
+      <c r="I12" s="434"/>
+      <c r="J12" s="434"/>
+      <c r="K12" s="434"/>
+      <c r="L12" s="434"/>
+      <c r="M12" s="432"/>
+      <c r="N12" s="432"/>
+      <c r="O12" s="432"/>
+      <c r="P12" s="433"/>
+      <c r="Q12" s="456"/>
+      <c r="S12" s="461"/>
+      <c r="T12" s="431"/>
+      <c r="U12" s="432"/>
+      <c r="V12" s="432"/>
+      <c r="W12" s="432"/>
+      <c r="X12" s="434"/>
+      <c r="Y12" s="434"/>
+      <c r="Z12" s="434"/>
+      <c r="AA12" s="434"/>
+      <c r="AB12" s="434"/>
+      <c r="AC12" s="434"/>
+      <c r="AD12" s="432"/>
+      <c r="AE12" s="432"/>
+      <c r="AF12" s="432"/>
+      <c r="AG12" s="433"/>
+      <c r="AH12" s="456"/>
+      <c r="AJ12" s="461"/>
+      <c r="AK12" s="431"/>
+      <c r="AL12" s="432"/>
+      <c r="AM12" s="432"/>
+      <c r="AN12" s="432"/>
+      <c r="AO12" s="434"/>
+      <c r="AP12" s="434"/>
+      <c r="AQ12" s="434"/>
+      <c r="AR12" s="434"/>
+      <c r="AS12" s="434"/>
+      <c r="AT12" s="434"/>
+      <c r="AU12" s="432"/>
+      <c r="AV12" s="432"/>
+      <c r="AW12" s="432"/>
+      <c r="AX12" s="433"/>
+      <c r="AY12" s="456"/>
+      <c r="AZ12" s="493"/>
+    </row>
+    <row r="13" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B13" s="452"/>
+      <c r="C13" s="431"/>
+      <c r="D13" s="432"/>
+      <c r="E13" s="432"/>
+      <c r="F13" s="435"/>
+      <c r="G13" s="436"/>
+      <c r="H13" s="437"/>
+      <c r="I13" s="437"/>
+      <c r="J13" s="437"/>
+      <c r="K13" s="437"/>
+      <c r="L13" s="438"/>
+      <c r="M13" s="439"/>
+      <c r="N13" s="432"/>
+      <c r="O13" s="432"/>
+      <c r="P13" s="433"/>
+      <c r="Q13" s="427"/>
+      <c r="S13" s="452"/>
+      <c r="T13" s="431"/>
+      <c r="U13" s="432"/>
+      <c r="V13" s="432"/>
+      <c r="W13" s="435"/>
+      <c r="X13" s="436"/>
+      <c r="Y13" s="437"/>
+      <c r="Z13" s="437"/>
+      <c r="AA13" s="437"/>
+      <c r="AB13" s="437"/>
+      <c r="AC13" s="438"/>
+      <c r="AD13" s="439"/>
+      <c r="AE13" s="432"/>
+      <c r="AF13" s="432"/>
+      <c r="AG13" s="433"/>
+      <c r="AH13" s="427"/>
+      <c r="AJ13" s="452"/>
+      <c r="AK13" s="431"/>
+      <c r="AL13" s="432"/>
+      <c r="AM13" s="432"/>
+      <c r="AN13" s="435"/>
+      <c r="AO13" s="436"/>
+      <c r="AP13" s="437"/>
+      <c r="AQ13" s="437"/>
+      <c r="AR13" s="437"/>
+      <c r="AS13" s="437"/>
+      <c r="AT13" s="438"/>
+      <c r="AU13" s="439"/>
+      <c r="AV13" s="432"/>
+      <c r="AW13" s="432"/>
+      <c r="AX13" s="433"/>
+      <c r="AY13" s="427"/>
+      <c r="AZ13" s="480"/>
+    </row>
+    <row r="14" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="452"/>
+      <c r="C14" s="431"/>
+      <c r="D14" s="432"/>
+      <c r="E14" s="432"/>
+      <c r="F14" s="435"/>
+      <c r="G14" s="440"/>
+      <c r="H14" s="441"/>
+      <c r="I14" s="441"/>
+      <c r="J14" s="441"/>
+      <c r="K14" s="441"/>
+      <c r="L14" s="442"/>
+      <c r="M14" s="439"/>
+      <c r="N14" s="432"/>
+      <c r="O14" s="432"/>
+      <c r="P14" s="433"/>
+      <c r="Q14" s="427"/>
+      <c r="S14" s="452"/>
+      <c r="T14" s="431"/>
+      <c r="U14" s="432"/>
+      <c r="V14" s="432"/>
+      <c r="W14" s="435"/>
+      <c r="X14" s="440"/>
+      <c r="Y14" s="441"/>
+      <c r="Z14" s="441"/>
+      <c r="AA14" s="441"/>
+      <c r="AB14" s="441"/>
+      <c r="AC14" s="442"/>
+      <c r="AD14" s="439"/>
+      <c r="AE14" s="432"/>
+      <c r="AF14" s="432"/>
+      <c r="AG14" s="433"/>
+      <c r="AH14" s="427"/>
+      <c r="AJ14" s="452"/>
+      <c r="AK14" s="431"/>
+      <c r="AL14" s="432"/>
+      <c r="AM14" s="432"/>
+      <c r="AN14" s="435"/>
+      <c r="AO14" s="440"/>
+      <c r="AP14" s="441"/>
+      <c r="AQ14" s="441"/>
+      <c r="AR14" s="441"/>
+      <c r="AS14" s="441"/>
+      <c r="AT14" s="442"/>
+      <c r="AU14" s="439"/>
+      <c r="AV14" s="432"/>
+      <c r="AW14" s="432"/>
+      <c r="AX14" s="433"/>
+      <c r="AY14" s="427"/>
+      <c r="AZ14" s="480"/>
+    </row>
+    <row r="15" spans="2:52" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="462" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="431"/>
+      <c r="D15" s="432"/>
+      <c r="E15" s="432"/>
+      <c r="F15" s="435"/>
+      <c r="G15" s="440"/>
+      <c r="H15" s="441"/>
+      <c r="I15" s="441"/>
+      <c r="J15" s="441"/>
+      <c r="K15" s="441"/>
+      <c r="L15" s="442"/>
+      <c r="M15" s="439"/>
+      <c r="N15" s="432"/>
+      <c r="O15" s="432"/>
+      <c r="P15" s="433"/>
+      <c r="Q15" s="459" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="462" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="431"/>
+      <c r="U15" s="432"/>
+      <c r="V15" s="432"/>
+      <c r="W15" s="435"/>
+      <c r="X15" s="440"/>
+      <c r="Y15" s="441"/>
+      <c r="Z15" s="441"/>
+      <c r="AA15" s="441"/>
+      <c r="AB15" s="441"/>
+      <c r="AC15" s="442"/>
+      <c r="AD15" s="439"/>
+      <c r="AE15" s="432"/>
+      <c r="AF15" s="432"/>
+      <c r="AG15" s="433"/>
+      <c r="AH15" s="459" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ15" s="462" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK15" s="431"/>
+      <c r="AL15" s="432"/>
+      <c r="AM15" s="432"/>
+      <c r="AN15" s="435"/>
+      <c r="AO15" s="440"/>
+      <c r="AP15" s="441"/>
+      <c r="AQ15" s="441"/>
+      <c r="AR15" s="441"/>
+      <c r="AS15" s="441"/>
+      <c r="AT15" s="442"/>
+      <c r="AU15" s="439"/>
+      <c r="AV15" s="432"/>
+      <c r="AW15" s="432"/>
+      <c r="AX15" s="433"/>
+      <c r="AY15" s="459" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ15" s="494"/>
+    </row>
+    <row r="16" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="461"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="432"/>
+      <c r="E16" s="432"/>
+      <c r="F16" s="435"/>
+      <c r="G16" s="440"/>
+      <c r="H16" s="441"/>
+      <c r="I16" s="441"/>
+      <c r="J16" s="441"/>
+      <c r="K16" s="441"/>
+      <c r="L16" s="442"/>
+      <c r="M16" s="439"/>
+      <c r="N16" s="432"/>
+      <c r="O16" s="432"/>
+      <c r="P16" s="433"/>
+      <c r="Q16" s="456"/>
+      <c r="S16" s="461"/>
+      <c r="T16" s="431"/>
+      <c r="U16" s="432"/>
+      <c r="V16" s="432"/>
+      <c r="W16" s="435"/>
+      <c r="X16" s="440"/>
+      <c r="Y16" s="441"/>
+      <c r="Z16" s="441"/>
+      <c r="AA16" s="441"/>
+      <c r="AB16" s="441"/>
+      <c r="AC16" s="442"/>
+      <c r="AD16" s="439"/>
+      <c r="AE16" s="432"/>
+      <c r="AF16" s="432"/>
+      <c r="AG16" s="433"/>
+      <c r="AH16" s="456"/>
+      <c r="AJ16" s="461"/>
+      <c r="AK16" s="431"/>
+      <c r="AL16" s="432"/>
+      <c r="AM16" s="432"/>
+      <c r="AN16" s="435"/>
+      <c r="AO16" s="440"/>
+      <c r="AP16" s="441"/>
+      <c r="AQ16" s="441"/>
+      <c r="AR16" s="441"/>
+      <c r="AS16" s="441"/>
+      <c r="AT16" s="442"/>
+      <c r="AU16" s="439"/>
+      <c r="AV16" s="432"/>
+      <c r="AW16" s="432"/>
+      <c r="AX16" s="433"/>
+      <c r="AY16" s="456"/>
+      <c r="AZ16" s="493"/>
+    </row>
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B17" s="452"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="432"/>
+      <c r="E17" s="432"/>
+      <c r="F17" s="435"/>
+      <c r="G17" s="440"/>
+      <c r="H17" s="441"/>
+      <c r="I17" s="441"/>
+      <c r="J17" s="441"/>
+      <c r="K17" s="441"/>
+      <c r="L17" s="442"/>
+      <c r="M17" s="439"/>
+      <c r="N17" s="432"/>
+      <c r="O17" s="432"/>
+      <c r="P17" s="433"/>
+      <c r="Q17" s="427"/>
+      <c r="S17" s="452"/>
+      <c r="T17" s="431"/>
+      <c r="U17" s="432"/>
+      <c r="V17" s="432"/>
+      <c r="W17" s="435"/>
+      <c r="X17" s="440"/>
+      <c r="Y17" s="441"/>
+      <c r="Z17" s="441"/>
+      <c r="AA17" s="441"/>
+      <c r="AB17" s="441"/>
+      <c r="AC17" s="442"/>
+      <c r="AD17" s="439"/>
+      <c r="AE17" s="432"/>
+      <c r="AF17" s="432"/>
+      <c r="AG17" s="433"/>
+      <c r="AH17" s="427"/>
+      <c r="AJ17" s="452"/>
+      <c r="AK17" s="431"/>
+      <c r="AL17" s="432"/>
+      <c r="AM17" s="432"/>
+      <c r="AN17" s="435"/>
+      <c r="AO17" s="440"/>
+      <c r="AP17" s="441"/>
+      <c r="AQ17" s="441"/>
+      <c r="AR17" s="441"/>
+      <c r="AS17" s="441"/>
+      <c r="AT17" s="442"/>
+      <c r="AU17" s="439"/>
+      <c r="AV17" s="432"/>
+      <c r="AW17" s="432"/>
+      <c r="AX17" s="433"/>
+      <c r="AY17" s="427"/>
+      <c r="AZ17" s="480"/>
+    </row>
+    <row r="18" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="452"/>
+      <c r="C18" s="431"/>
+      <c r="D18" s="432"/>
+      <c r="E18" s="432"/>
+      <c r="F18" s="435"/>
+      <c r="G18" s="443"/>
+      <c r="H18" s="444"/>
+      <c r="I18" s="444"/>
+      <c r="J18" s="444"/>
+      <c r="K18" s="444"/>
+      <c r="L18" s="445"/>
+      <c r="M18" s="439"/>
+      <c r="N18" s="432"/>
+      <c r="O18" s="432"/>
+      <c r="P18" s="433"/>
+      <c r="Q18" s="427"/>
+      <c r="S18" s="452"/>
+      <c r="T18" s="431"/>
+      <c r="U18" s="432"/>
+      <c r="V18" s="432"/>
+      <c r="W18" s="435"/>
+      <c r="X18" s="443"/>
+      <c r="Y18" s="444"/>
+      <c r="Z18" s="444"/>
+      <c r="AA18" s="444"/>
+      <c r="AB18" s="444"/>
+      <c r="AC18" s="445"/>
+      <c r="AD18" s="439"/>
+      <c r="AE18" s="432"/>
+      <c r="AF18" s="432"/>
+      <c r="AG18" s="433"/>
+      <c r="AH18" s="427"/>
+      <c r="AJ18" s="452"/>
+      <c r="AK18" s="431"/>
+      <c r="AL18" s="432"/>
+      <c r="AM18" s="432"/>
+      <c r="AN18" s="435"/>
+      <c r="AO18" s="443"/>
+      <c r="AP18" s="444"/>
+      <c r="AQ18" s="444"/>
+      <c r="AR18" s="444"/>
+      <c r="AS18" s="444"/>
+      <c r="AT18" s="445"/>
+      <c r="AU18" s="439"/>
+      <c r="AV18" s="432"/>
+      <c r="AW18" s="432"/>
+      <c r="AX18" s="433"/>
+      <c r="AY18" s="427"/>
+      <c r="AZ18" s="480"/>
+    </row>
+    <row r="19" spans="2:54" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="431"/>
+      <c r="D19" s="432"/>
+      <c r="E19" s="432"/>
+      <c r="F19" s="432"/>
+      <c r="G19" s="426"/>
+      <c r="H19" s="426"/>
+      <c r="I19" s="426"/>
+      <c r="J19" s="426"/>
+      <c r="K19" s="426"/>
+      <c r="L19" s="426"/>
+      <c r="M19" s="432"/>
+      <c r="N19" s="432"/>
+      <c r="O19" s="432"/>
+      <c r="P19" s="433"/>
+      <c r="Q19" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="S19" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" s="431"/>
+      <c r="U19" s="432"/>
+      <c r="V19" s="432"/>
+      <c r="W19" s="432"/>
+      <c r="X19" s="426"/>
+      <c r="Y19" s="426"/>
+      <c r="Z19" s="426"/>
+      <c r="AA19" s="426"/>
+      <c r="AB19" s="426"/>
+      <c r="AC19" s="426"/>
+      <c r="AD19" s="432"/>
+      <c r="AE19" s="432"/>
+      <c r="AF19" s="432"/>
+      <c r="AG19" s="433"/>
+      <c r="AH19" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ19" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK19" s="431"/>
+      <c r="AL19" s="432"/>
+      <c r="AM19" s="432"/>
+      <c r="AN19" s="432"/>
+      <c r="AO19" s="426"/>
+      <c r="AP19" s="426"/>
+      <c r="AQ19" s="426"/>
+      <c r="AR19" s="426"/>
+      <c r="AS19" s="426"/>
+      <c r="AT19" s="426"/>
+      <c r="AU19" s="432"/>
+      <c r="AV19" s="432"/>
+      <c r="AW19" s="432"/>
+      <c r="AX19" s="433"/>
+      <c r="AY19" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ19" s="492"/>
+    </row>
+    <row r="20" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="461"/>
+      <c r="C20" s="431"/>
+      <c r="D20" s="432"/>
+      <c r="E20" s="432"/>
+      <c r="F20" s="432"/>
+      <c r="G20" s="432"/>
+      <c r="H20" s="432"/>
+      <c r="I20" s="432"/>
+      <c r="J20" s="432"/>
+      <c r="K20" s="432"/>
+      <c r="L20" s="432"/>
+      <c r="M20" s="432"/>
+      <c r="N20" s="432"/>
+      <c r="O20" s="432"/>
+      <c r="P20" s="433"/>
+      <c r="Q20" s="456"/>
+      <c r="S20" s="461"/>
+      <c r="T20" s="431"/>
+      <c r="U20" s="432"/>
+      <c r="V20" s="432"/>
+      <c r="W20" s="432"/>
+      <c r="X20" s="432"/>
+      <c r="Y20" s="432"/>
+      <c r="Z20" s="432"/>
+      <c r="AA20" s="432"/>
+      <c r="AB20" s="432"/>
+      <c r="AC20" s="432"/>
+      <c r="AD20" s="432"/>
+      <c r="AE20" s="432"/>
+      <c r="AF20" s="432"/>
+      <c r="AG20" s="433"/>
+      <c r="AH20" s="456"/>
+      <c r="AJ20" s="461"/>
+      <c r="AK20" s="431"/>
+      <c r="AL20" s="432"/>
+      <c r="AM20" s="432"/>
+      <c r="AN20" s="432"/>
+      <c r="AO20" s="432"/>
+      <c r="AP20" s="432"/>
+      <c r="AQ20" s="432"/>
+      <c r="AR20" s="432"/>
+      <c r="AS20" s="432"/>
+      <c r="AT20" s="432"/>
+      <c r="AU20" s="432"/>
+      <c r="AV20" s="432"/>
+      <c r="AW20" s="432"/>
+      <c r="AX20" s="433"/>
+      <c r="AY20" s="456"/>
+      <c r="AZ20" s="493"/>
+    </row>
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B21" s="452"/>
+      <c r="C21" s="431"/>
+      <c r="D21" s="432"/>
+      <c r="E21" s="432"/>
+      <c r="F21" s="432"/>
+      <c r="G21" s="432"/>
+      <c r="H21" s="432"/>
+      <c r="I21" s="432"/>
+      <c r="J21" s="432"/>
+      <c r="K21" s="432"/>
+      <c r="L21" s="432"/>
+      <c r="M21" s="432"/>
+      <c r="N21" s="432"/>
+      <c r="O21" s="432"/>
+      <c r="P21" s="433"/>
+      <c r="Q21" s="427"/>
+      <c r="S21" s="452"/>
+      <c r="T21" s="431"/>
+      <c r="U21" s="432"/>
+      <c r="V21" s="432"/>
+      <c r="W21" s="432"/>
+      <c r="X21" s="432"/>
+      <c r="Y21" s="432"/>
+      <c r="Z21" s="432"/>
+      <c r="AA21" s="432"/>
+      <c r="AB21" s="432"/>
+      <c r="AC21" s="432"/>
+      <c r="AD21" s="432"/>
+      <c r="AE21" s="432"/>
+      <c r="AF21" s="432"/>
+      <c r="AG21" s="433"/>
+      <c r="AH21" s="427"/>
+      <c r="AJ21" s="452"/>
+      <c r="AK21" s="431"/>
+      <c r="AL21" s="432"/>
+      <c r="AM21" s="432"/>
+      <c r="AN21" s="432"/>
+      <c r="AO21" s="432"/>
+      <c r="AP21" s="432"/>
+      <c r="AQ21" s="432"/>
+      <c r="AR21" s="432"/>
+      <c r="AS21" s="432"/>
+      <c r="AT21" s="432"/>
+      <c r="AU21" s="432"/>
+      <c r="AV21" s="432"/>
+      <c r="AW21" s="432"/>
+      <c r="AX21" s="433"/>
+      <c r="AY21" s="427"/>
+      <c r="AZ21" s="480"/>
+    </row>
+    <row r="22" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="452"/>
+      <c r="C22" s="446"/>
+      <c r="D22" s="447"/>
+      <c r="E22" s="447"/>
+      <c r="F22" s="447"/>
+      <c r="G22" s="447"/>
+      <c r="H22" s="447"/>
+      <c r="I22" s="447"/>
+      <c r="J22" s="447"/>
+      <c r="K22" s="447"/>
+      <c r="L22" s="447"/>
+      <c r="M22" s="447"/>
+      <c r="N22" s="447"/>
+      <c r="O22" s="447"/>
+      <c r="P22" s="448"/>
+      <c r="Q22" s="427"/>
+      <c r="S22" s="452"/>
+      <c r="T22" s="446"/>
+      <c r="U22" s="447"/>
+      <c r="V22" s="447"/>
+      <c r="W22" s="447"/>
+      <c r="X22" s="447"/>
+      <c r="Y22" s="447"/>
+      <c r="Z22" s="447"/>
+      <c r="AA22" s="447"/>
+      <c r="AB22" s="447"/>
+      <c r="AC22" s="447"/>
+      <c r="AD22" s="447"/>
+      <c r="AE22" s="447"/>
+      <c r="AF22" s="447"/>
+      <c r="AG22" s="448"/>
+      <c r="AH22" s="427"/>
+      <c r="AJ22" s="452"/>
+      <c r="AK22" s="446"/>
+      <c r="AL22" s="447"/>
+      <c r="AM22" s="447"/>
+      <c r="AN22" s="447"/>
+      <c r="AO22" s="447"/>
+      <c r="AP22" s="447"/>
+      <c r="AQ22" s="447"/>
+      <c r="AR22" s="447"/>
+      <c r="AS22" s="447"/>
+      <c r="AT22" s="447"/>
+      <c r="AU22" s="447"/>
+      <c r="AV22" s="447"/>
+      <c r="AW22" s="447"/>
+      <c r="AX22" s="448"/>
+      <c r="AY22" s="427"/>
+      <c r="AZ22" s="480"/>
+      <c r="BB22" s="449"/>
+    </row>
+    <row r="23" spans="2:54" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="453"/>
+      <c r="C23" s="472"/>
+      <c r="D23" s="472"/>
+      <c r="E23" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="456"/>
+      <c r="G23" s="472"/>
+      <c r="H23" s="472"/>
+      <c r="I23" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="456"/>
+      <c r="K23" s="472"/>
+      <c r="L23" s="472"/>
+      <c r="M23" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="456"/>
+      <c r="O23" s="472"/>
+      <c r="P23" s="472"/>
+      <c r="Q23" s="473"/>
+      <c r="S23" s="453"/>
+      <c r="T23" s="472"/>
+      <c r="U23" s="472"/>
+      <c r="V23" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="W23" s="456"/>
+      <c r="X23" s="472"/>
+      <c r="Y23" s="472"/>
+      <c r="Z23" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA23" s="456"/>
+      <c r="AB23" s="472"/>
+      <c r="AC23" s="472"/>
+      <c r="AD23" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE23" s="456"/>
+      <c r="AF23" s="472"/>
+      <c r="AG23" s="472"/>
+      <c r="AH23" s="473"/>
+      <c r="AJ23" s="453"/>
+      <c r="AK23" s="472"/>
+      <c r="AL23" s="472"/>
+      <c r="AM23" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN23" s="456"/>
+      <c r="AO23" s="472"/>
+      <c r="AP23" s="472"/>
+      <c r="AQ23" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR23" s="456"/>
+      <c r="AS23" s="472"/>
+      <c r="AT23" s="472"/>
+      <c r="AU23" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV23" s="456"/>
+      <c r="AW23" s="472"/>
+      <c r="AX23" s="472"/>
+      <c r="AY23" s="473"/>
+      <c r="AZ23" s="480"/>
+    </row>
+    <row r="24" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B25" s="451"/>
+      <c r="C25" s="470"/>
+      <c r="D25" s="470"/>
+      <c r="E25" s="470"/>
+      <c r="F25" s="470"/>
+      <c r="G25" s="470"/>
+      <c r="H25" s="470"/>
+      <c r="I25" s="470"/>
+      <c r="J25" s="470"/>
+      <c r="K25" s="470"/>
+      <c r="L25" s="470"/>
+      <c r="M25" s="470"/>
+      <c r="N25" s="470"/>
+      <c r="O25" s="470"/>
+      <c r="P25" s="470"/>
+      <c r="Q25" s="471"/>
+      <c r="S25" s="451"/>
+      <c r="T25" s="470"/>
+      <c r="U25" s="470"/>
+      <c r="V25" s="470"/>
+      <c r="W25" s="470"/>
+      <c r="X25" s="470"/>
+      <c r="Y25" s="470"/>
+      <c r="Z25" s="470"/>
+      <c r="AA25" s="470"/>
+      <c r="AB25" s="470"/>
+      <c r="AC25" s="470"/>
+      <c r="AD25" s="470"/>
+      <c r="AE25" s="470"/>
+      <c r="AF25" s="470"/>
+      <c r="AG25" s="470"/>
+      <c r="AH25" s="471"/>
+      <c r="AJ25" s="451"/>
+      <c r="AK25" s="470"/>
+      <c r="AL25" s="470"/>
+      <c r="AM25" s="470"/>
+      <c r="AN25" s="470"/>
+      <c r="AO25" s="470"/>
+      <c r="AP25" s="470"/>
+      <c r="AQ25" s="470"/>
+      <c r="AR25" s="470"/>
+      <c r="AS25" s="470"/>
+      <c r="AT25" s="470"/>
+      <c r="AU25" s="470"/>
+      <c r="AV25" s="470"/>
+      <c r="AW25" s="470"/>
+      <c r="AX25" s="470"/>
+      <c r="AY25" s="471"/>
+      <c r="AZ25" s="480"/>
+    </row>
+    <row r="26" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="453"/>
+      <c r="C26" s="472"/>
+      <c r="D26" s="472"/>
+      <c r="E26" s="472"/>
+      <c r="F26" s="472"/>
+      <c r="G26" s="472"/>
+      <c r="H26" s="472"/>
+      <c r="I26" s="472"/>
+      <c r="J26" s="472"/>
+      <c r="K26" s="472"/>
+      <c r="L26" s="472"/>
+      <c r="M26" s="472"/>
+      <c r="N26" s="472"/>
+      <c r="O26" s="472"/>
+      <c r="P26" s="472"/>
+      <c r="Q26" s="473"/>
+      <c r="S26" s="453"/>
+      <c r="T26" s="472"/>
+      <c r="U26" s="472"/>
+      <c r="V26" s="472"/>
+      <c r="W26" s="472"/>
+      <c r="X26" s="472"/>
+      <c r="Y26" s="472"/>
+      <c r="Z26" s="472"/>
+      <c r="AA26" s="472"/>
+      <c r="AB26" s="472"/>
+      <c r="AC26" s="472"/>
+      <c r="AD26" s="472"/>
+      <c r="AE26" s="472"/>
+      <c r="AF26" s="472"/>
+      <c r="AG26" s="472"/>
+      <c r="AH26" s="473"/>
+      <c r="AJ26" s="453"/>
+      <c r="AK26" s="472"/>
+      <c r="AL26" s="472"/>
+      <c r="AM26" s="472"/>
+      <c r="AN26" s="472"/>
+      <c r="AO26" s="472"/>
+      <c r="AP26" s="472"/>
+      <c r="AQ26" s="472"/>
+      <c r="AR26" s="472"/>
+      <c r="AS26" s="472"/>
+      <c r="AT26" s="472"/>
+      <c r="AU26" s="472"/>
+      <c r="AV26" s="472"/>
+      <c r="AW26" s="472"/>
+      <c r="AX26" s="472"/>
+      <c r="AY26" s="473"/>
+      <c r="AZ26" s="480"/>
+    </row>
+    <row r="27" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="487" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="450" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="463"/>
+      <c r="E27" s="463"/>
+      <c r="F27" s="463"/>
+      <c r="G27" s="463"/>
+      <c r="H27" s="463"/>
+      <c r="I27" s="463"/>
+      <c r="J27" s="463" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="463"/>
+      <c r="L27" s="463"/>
+      <c r="M27" s="463"/>
+      <c r="N27" s="463"/>
+      <c r="O27" s="463"/>
+      <c r="P27" s="463"/>
+      <c r="Q27" s="484" t="s">
+        <v>104</v>
+      </c>
+      <c r="S27" s="487" t="s">
+        <v>103</v>
+      </c>
+      <c r="T27" s="450" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="463"/>
+      <c r="V27" s="463"/>
+      <c r="W27" s="463"/>
+      <c r="X27" s="463"/>
+      <c r="Y27" s="463"/>
+      <c r="Z27" s="463"/>
+      <c r="AA27" s="463" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB27" s="463"/>
+      <c r="AC27" s="463"/>
+      <c r="AD27" s="463"/>
+      <c r="AE27" s="463"/>
+      <c r="AF27" s="463"/>
+      <c r="AG27" s="463"/>
+      <c r="AH27" s="484" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ27" s="487" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK27" s="450" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL27" s="463"/>
+      <c r="AM27" s="463"/>
+      <c r="AN27" s="463"/>
+      <c r="AO27" s="463"/>
+      <c r="AP27" s="463"/>
+      <c r="AQ27" s="463"/>
+      <c r="AR27" s="463" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS27" s="463"/>
+      <c r="AT27" s="463"/>
+      <c r="AU27" s="463"/>
+      <c r="AV27" s="463"/>
+      <c r="AW27" s="463"/>
+      <c r="AX27" s="463"/>
+      <c r="AY27" s="484" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ27" s="490"/>
+    </row>
+    <row r="28" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="488"/>
+      <c r="C28" s="454" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="475" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="449" t="s">
+      <c r="E28" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="476" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="477" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="474" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="479" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="476" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="464" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="464"/>
+      <c r="Q28" s="485"/>
+      <c r="S28" s="488"/>
+      <c r="T28" s="454" t="s">
+        <v>92</v>
+      </c>
+      <c r="U28" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="W28" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="476" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y28" s="477" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z28" s="474" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA28" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC28" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="479" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE28" s="476" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="464" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG28" s="464"/>
+      <c r="AH28" s="485"/>
+      <c r="AJ28" s="488"/>
+      <c r="AK28" s="454" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL28" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN28" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="476" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP28" s="477" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ28" s="474" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR28" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="474" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT28" s="475" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="479" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV28" s="476" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="464" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX28" s="464"/>
+      <c r="AY28" s="485"/>
+      <c r="AZ28" s="491"/>
+    </row>
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B29" s="488"/>
+      <c r="C29" s="481">
+        <v>2</v>
+      </c>
+      <c r="D29" s="468">
+        <v>3</v>
+      </c>
+      <c r="E29" s="468">
+        <v>4</v>
+      </c>
+      <c r="F29" s="468">
+        <v>5</v>
+      </c>
+      <c r="G29" s="468">
+        <v>6</v>
+      </c>
+      <c r="H29" s="468">
+        <v>7</v>
+      </c>
+      <c r="I29" s="468">
+        <v>8</v>
+      </c>
+      <c r="J29" s="468">
+        <v>9</v>
+      </c>
+      <c r="K29" s="465">
+        <v>10</v>
+      </c>
+      <c r="L29" s="465"/>
+      <c r="M29" s="465">
+        <v>11</v>
+      </c>
+      <c r="N29" s="465"/>
+      <c r="O29" s="466">
+        <v>12</v>
+      </c>
+      <c r="P29" s="467"/>
+      <c r="Q29" s="485"/>
+      <c r="S29" s="488"/>
+      <c r="T29" s="481">
+        <v>2</v>
+      </c>
+      <c r="U29" s="468">
+        <v>3</v>
+      </c>
+      <c r="V29" s="468">
+        <v>4</v>
+      </c>
+      <c r="W29" s="468">
+        <v>5</v>
+      </c>
+      <c r="X29" s="468">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="468">
+        <v>7</v>
+      </c>
+      <c r="Z29" s="468">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="468">
+        <v>9</v>
+      </c>
+      <c r="AB29" s="465">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="465"/>
+      <c r="AD29" s="465">
+        <v>11</v>
+      </c>
+      <c r="AE29" s="465"/>
+      <c r="AF29" s="466">
+        <v>12</v>
+      </c>
+      <c r="AG29" s="467"/>
+      <c r="AH29" s="485"/>
+      <c r="AJ29" s="488"/>
+      <c r="AK29" s="481">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="468">
+        <v>3</v>
+      </c>
+      <c r="AM29" s="468">
+        <v>4</v>
+      </c>
+      <c r="AN29" s="468">
+        <v>5</v>
+      </c>
+      <c r="AO29" s="468">
+        <v>6</v>
+      </c>
+      <c r="AP29" s="468">
+        <v>7</v>
+      </c>
+      <c r="AQ29" s="468">
+        <v>8</v>
+      </c>
+      <c r="AR29" s="468">
+        <v>9</v>
+      </c>
+      <c r="AS29" s="465">
+        <v>10</v>
+      </c>
+      <c r="AT29" s="465"/>
+      <c r="AU29" s="465">
+        <v>11</v>
+      </c>
+      <c r="AV29" s="465"/>
+      <c r="AW29" s="466">
+        <v>12</v>
+      </c>
+      <c r="AX29" s="467"/>
+      <c r="AY29" s="485"/>
+      <c r="AZ29" s="491"/>
+    </row>
+    <row r="30" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="488"/>
+      <c r="C30" s="482">
+        <v>4</v>
+      </c>
+      <c r="D30" s="469">
+        <v>8</v>
+      </c>
+      <c r="E30" s="469">
+        <v>12</v>
+      </c>
+      <c r="F30" s="469">
+        <v>16</v>
+      </c>
+      <c r="G30" s="469">
+        <v>20</v>
+      </c>
+      <c r="H30" s="469">
+        <v>24</v>
+      </c>
+      <c r="I30" s="469">
+        <v>28</v>
+      </c>
+      <c r="J30" s="469">
+        <v>32</v>
+      </c>
+      <c r="K30" s="428">
+        <v>36</v>
+      </c>
+      <c r="L30" s="428"/>
+      <c r="M30" s="428">
+        <v>40</v>
+      </c>
+      <c r="N30" s="428"/>
+      <c r="O30" s="428">
+        <v>45</v>
+      </c>
+      <c r="P30" s="429"/>
+      <c r="Q30" s="485"/>
+      <c r="S30" s="488"/>
+      <c r="T30" s="482">
+        <v>4</v>
+      </c>
+      <c r="U30" s="469">
+        <v>8</v>
+      </c>
+      <c r="V30" s="469">
+        <v>12</v>
+      </c>
+      <c r="W30" s="469">
+        <v>16</v>
+      </c>
+      <c r="X30" s="469">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="469">
+        <v>24</v>
+      </c>
+      <c r="Z30" s="469">
+        <v>28</v>
+      </c>
+      <c r="AA30" s="469">
+        <v>32</v>
+      </c>
+      <c r="AB30" s="428">
+        <v>36</v>
+      </c>
+      <c r="AC30" s="428"/>
+      <c r="AD30" s="428">
+        <v>40</v>
+      </c>
+      <c r="AE30" s="428"/>
+      <c r="AF30" s="428">
+        <v>45</v>
+      </c>
+      <c r="AG30" s="429"/>
+      <c r="AH30" s="485"/>
+      <c r="AJ30" s="488"/>
+      <c r="AK30" s="482">
+        <v>4</v>
+      </c>
+      <c r="AL30" s="469">
+        <v>8</v>
+      </c>
+      <c r="AM30" s="469">
+        <v>12</v>
+      </c>
+      <c r="AN30" s="469">
+        <v>16</v>
+      </c>
+      <c r="AO30" s="469">
+        <v>20</v>
+      </c>
+      <c r="AP30" s="469">
+        <v>24</v>
+      </c>
+      <c r="AQ30" s="469">
+        <v>28</v>
+      </c>
+      <c r="AR30" s="469">
+        <v>32</v>
+      </c>
+      <c r="AS30" s="428">
+        <v>36</v>
+      </c>
+      <c r="AT30" s="428"/>
+      <c r="AU30" s="428">
+        <v>40</v>
+      </c>
+      <c r="AV30" s="428"/>
+      <c r="AW30" s="428">
+        <v>45</v>
+      </c>
+      <c r="AX30" s="429"/>
+      <c r="AY30" s="485"/>
+      <c r="AZ30" s="491"/>
+    </row>
+    <row r="31" spans="2:54" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="488"/>
+      <c r="C31" s="480"/>
+      <c r="D31" s="480"/>
+      <c r="E31" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="456"/>
+      <c r="G31" s="480"/>
+      <c r="H31" s="480"/>
+      <c r="I31" s="457" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="449" t="s">
+      <c r="J31" s="456"/>
+      <c r="K31" s="480"/>
+      <c r="L31" s="480"/>
+      <c r="M31" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" s="456"/>
+      <c r="O31" s="480"/>
+      <c r="P31" s="480"/>
+      <c r="Q31" s="485"/>
+      <c r="S31" s="488"/>
+      <c r="T31" s="480"/>
+      <c r="U31" s="480"/>
+      <c r="V31" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="W31" s="456"/>
+      <c r="X31" s="480"/>
+      <c r="Y31" s="480"/>
+      <c r="Z31" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA31" s="456"/>
+      <c r="AB31" s="480"/>
+      <c r="AC31" s="480"/>
+      <c r="AD31" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE31" s="456"/>
+      <c r="AF31" s="480"/>
+      <c r="AG31" s="480"/>
+      <c r="AH31" s="485"/>
+      <c r="AJ31" s="488"/>
+      <c r="AK31" s="480"/>
+      <c r="AL31" s="480"/>
+      <c r="AM31" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN31" s="456"/>
+      <c r="AO31" s="480"/>
+      <c r="AP31" s="480"/>
+      <c r="AQ31" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR31" s="456"/>
+      <c r="AS31" s="480"/>
+      <c r="AT31" s="480"/>
+      <c r="AU31" s="455" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV31" s="456"/>
+      <c r="AW31" s="480"/>
+      <c r="AX31" s="480"/>
+      <c r="AY31" s="485"/>
+      <c r="AZ31" s="491"/>
+    </row>
+    <row r="32" spans="2:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="488"/>
+      <c r="C32" s="483"/>
+      <c r="D32" s="425"/>
+      <c r="E32" s="425"/>
+      <c r="F32" s="425"/>
+      <c r="G32" s="425"/>
+      <c r="H32" s="425"/>
+      <c r="I32" s="425"/>
+      <c r="J32" s="425"/>
+      <c r="K32" s="425"/>
+      <c r="L32" s="425"/>
+      <c r="M32" s="425"/>
+      <c r="N32" s="425"/>
+      <c r="O32" s="425"/>
+      <c r="P32" s="430"/>
+      <c r="Q32" s="485"/>
+      <c r="S32" s="488"/>
+      <c r="T32" s="483"/>
+      <c r="U32" s="425"/>
+      <c r="V32" s="425"/>
+      <c r="W32" s="425"/>
+      <c r="X32" s="425"/>
+      <c r="Y32" s="425"/>
+      <c r="Z32" s="425"/>
+      <c r="AA32" s="425"/>
+      <c r="AB32" s="425"/>
+      <c r="AC32" s="425"/>
+      <c r="AD32" s="425"/>
+      <c r="AE32" s="425"/>
+      <c r="AF32" s="425"/>
+      <c r="AG32" s="430"/>
+      <c r="AH32" s="485"/>
+      <c r="AJ32" s="488"/>
+      <c r="AK32" s="483"/>
+      <c r="AL32" s="425"/>
+      <c r="AM32" s="425"/>
+      <c r="AN32" s="425"/>
+      <c r="AO32" s="425"/>
+      <c r="AP32" s="425"/>
+      <c r="AQ32" s="425"/>
+      <c r="AR32" s="425"/>
+      <c r="AS32" s="425"/>
+      <c r="AT32" s="425"/>
+      <c r="AU32" s="425"/>
+      <c r="AV32" s="425"/>
+      <c r="AW32" s="425"/>
+      <c r="AX32" s="430"/>
+      <c r="AY32" s="485"/>
+      <c r="AZ32" s="491"/>
+    </row>
+    <row r="33" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="489"/>
+      <c r="C33" s="439"/>
+      <c r="D33" s="432"/>
+      <c r="E33" s="432"/>
+      <c r="F33" s="432"/>
+      <c r="G33" s="432"/>
+      <c r="H33" s="432"/>
+      <c r="I33" s="432"/>
+      <c r="J33" s="432"/>
+      <c r="K33" s="432"/>
+      <c r="L33" s="432"/>
+      <c r="M33" s="432"/>
+      <c r="N33" s="432"/>
+      <c r="O33" s="432"/>
+      <c r="P33" s="433"/>
+      <c r="Q33" s="486"/>
+      <c r="S33" s="489"/>
+      <c r="T33" s="439"/>
+      <c r="U33" s="432"/>
+      <c r="V33" s="432"/>
+      <c r="W33" s="432"/>
+      <c r="X33" s="432"/>
+      <c r="Y33" s="432"/>
+      <c r="Z33" s="432"/>
+      <c r="AA33" s="432"/>
+      <c r="AB33" s="432"/>
+      <c r="AC33" s="432"/>
+      <c r="AD33" s="432"/>
+      <c r="AE33" s="432"/>
+      <c r="AF33" s="432"/>
+      <c r="AG33" s="433"/>
+      <c r="AH33" s="486"/>
+      <c r="AJ33" s="489"/>
+      <c r="AK33" s="439"/>
+      <c r="AL33" s="432"/>
+      <c r="AM33" s="432"/>
+      <c r="AN33" s="432"/>
+      <c r="AO33" s="432"/>
+      <c r="AP33" s="432"/>
+      <c r="AQ33" s="432"/>
+      <c r="AR33" s="432"/>
+      <c r="AS33" s="432"/>
+      <c r="AT33" s="432"/>
+      <c r="AU33" s="432"/>
+      <c r="AV33" s="432"/>
+      <c r="AW33" s="432"/>
+      <c r="AX33" s="433"/>
+      <c r="AY33" s="486"/>
+      <c r="AZ33" s="491"/>
+    </row>
+    <row r="34" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B34" s="460" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="449" t="s">
+      <c r="C34" s="431"/>
+      <c r="D34" s="432"/>
+      <c r="E34" s="432"/>
+      <c r="F34" s="432"/>
+      <c r="G34" s="432"/>
+      <c r="H34" s="432"/>
+      <c r="I34" s="432"/>
+      <c r="J34" s="432"/>
+      <c r="K34" s="432"/>
+      <c r="L34" s="432"/>
+      <c r="M34" s="432"/>
+      <c r="N34" s="432"/>
+      <c r="O34" s="432"/>
+      <c r="P34" s="433"/>
+      <c r="Q34" s="458" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="449" t="s">
+      <c r="S34" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="T34" s="431"/>
+      <c r="U34" s="432"/>
+      <c r="V34" s="432"/>
+      <c r="W34" s="432"/>
+      <c r="X34" s="432"/>
+      <c r="Y34" s="432"/>
+      <c r="Z34" s="432"/>
+      <c r="AA34" s="432"/>
+      <c r="AB34" s="432"/>
+      <c r="AC34" s="432"/>
+      <c r="AD34" s="432"/>
+      <c r="AE34" s="432"/>
+      <c r="AF34" s="432"/>
+      <c r="AG34" s="433"/>
+      <c r="AH34" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ34" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK34" s="431"/>
+      <c r="AL34" s="432"/>
+      <c r="AM34" s="432"/>
+      <c r="AN34" s="432"/>
+      <c r="AO34" s="432"/>
+      <c r="AP34" s="432"/>
+      <c r="AQ34" s="432"/>
+      <c r="AR34" s="432"/>
+      <c r="AS34" s="432"/>
+      <c r="AT34" s="432"/>
+      <c r="AU34" s="432"/>
+      <c r="AV34" s="432"/>
+      <c r="AW34" s="432"/>
+      <c r="AX34" s="433"/>
+      <c r="AY34" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ34" s="492"/>
+    </row>
+    <row r="35" spans="2:52" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="461"/>
+      <c r="C35" s="431"/>
+      <c r="D35" s="432"/>
+      <c r="E35" s="432"/>
+      <c r="F35" s="432"/>
+      <c r="G35" s="434"/>
+      <c r="H35" s="434"/>
+      <c r="I35" s="434"/>
+      <c r="J35" s="434"/>
+      <c r="K35" s="434"/>
+      <c r="L35" s="434"/>
+      <c r="M35" s="432"/>
+      <c r="N35" s="432"/>
+      <c r="O35" s="432"/>
+      <c r="P35" s="433"/>
+      <c r="Q35" s="456"/>
+      <c r="S35" s="461"/>
+      <c r="T35" s="431"/>
+      <c r="U35" s="432"/>
+      <c r="V35" s="432"/>
+      <c r="W35" s="432"/>
+      <c r="X35" s="434"/>
+      <c r="Y35" s="434"/>
+      <c r="Z35" s="434"/>
+      <c r="AA35" s="434"/>
+      <c r="AB35" s="434"/>
+      <c r="AC35" s="434"/>
+      <c r="AD35" s="432"/>
+      <c r="AE35" s="432"/>
+      <c r="AF35" s="432"/>
+      <c r="AG35" s="433"/>
+      <c r="AH35" s="456"/>
+      <c r="AJ35" s="461"/>
+      <c r="AK35" s="431"/>
+      <c r="AL35" s="432"/>
+      <c r="AM35" s="432"/>
+      <c r="AN35" s="432"/>
+      <c r="AO35" s="434"/>
+      <c r="AP35" s="434"/>
+      <c r="AQ35" s="434"/>
+      <c r="AR35" s="434"/>
+      <c r="AS35" s="434"/>
+      <c r="AT35" s="434"/>
+      <c r="AU35" s="432"/>
+      <c r="AV35" s="432"/>
+      <c r="AW35" s="432"/>
+      <c r="AX35" s="433"/>
+      <c r="AY35" s="456"/>
+      <c r="AZ35" s="493"/>
+    </row>
+    <row r="36" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B36" s="452"/>
+      <c r="C36" s="431"/>
+      <c r="D36" s="432"/>
+      <c r="E36" s="432"/>
+      <c r="F36" s="435"/>
+      <c r="G36" s="436"/>
+      <c r="H36" s="437"/>
+      <c r="I36" s="437"/>
+      <c r="J36" s="437"/>
+      <c r="K36" s="437"/>
+      <c r="L36" s="438"/>
+      <c r="M36" s="439"/>
+      <c r="N36" s="432"/>
+      <c r="O36" s="432"/>
+      <c r="P36" s="433"/>
+      <c r="Q36" s="427"/>
+      <c r="S36" s="452"/>
+      <c r="T36" s="431"/>
+      <c r="U36" s="432"/>
+      <c r="V36" s="432"/>
+      <c r="W36" s="435"/>
+      <c r="X36" s="436"/>
+      <c r="Y36" s="437"/>
+      <c r="Z36" s="437"/>
+      <c r="AA36" s="437"/>
+      <c r="AB36" s="437"/>
+      <c r="AC36" s="438"/>
+      <c r="AD36" s="439"/>
+      <c r="AE36" s="432"/>
+      <c r="AF36" s="432"/>
+      <c r="AG36" s="433"/>
+      <c r="AH36" s="427"/>
+      <c r="AJ36" s="452"/>
+      <c r="AK36" s="431"/>
+      <c r="AL36" s="432"/>
+      <c r="AM36" s="432"/>
+      <c r="AN36" s="435"/>
+      <c r="AO36" s="436"/>
+      <c r="AP36" s="437"/>
+      <c r="AQ36" s="437"/>
+      <c r="AR36" s="437"/>
+      <c r="AS36" s="437"/>
+      <c r="AT36" s="438"/>
+      <c r="AU36" s="439"/>
+      <c r="AV36" s="432"/>
+      <c r="AW36" s="432"/>
+      <c r="AX36" s="433"/>
+      <c r="AY36" s="427"/>
+      <c r="AZ36" s="480"/>
+    </row>
+    <row r="37" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="452"/>
+      <c r="C37" s="431"/>
+      <c r="D37" s="432"/>
+      <c r="E37" s="432"/>
+      <c r="F37" s="435"/>
+      <c r="G37" s="440"/>
+      <c r="H37" s="441"/>
+      <c r="I37" s="441"/>
+      <c r="J37" s="441"/>
+      <c r="K37" s="441"/>
+      <c r="L37" s="442"/>
+      <c r="M37" s="439"/>
+      <c r="N37" s="432"/>
+      <c r="O37" s="432"/>
+      <c r="P37" s="433"/>
+      <c r="Q37" s="427"/>
+      <c r="S37" s="452"/>
+      <c r="T37" s="431"/>
+      <c r="U37" s="432"/>
+      <c r="V37" s="432"/>
+      <c r="W37" s="435"/>
+      <c r="X37" s="440"/>
+      <c r="Y37" s="441"/>
+      <c r="Z37" s="441"/>
+      <c r="AA37" s="441"/>
+      <c r="AB37" s="441"/>
+      <c r="AC37" s="442"/>
+      <c r="AD37" s="439"/>
+      <c r="AE37" s="432"/>
+      <c r="AF37" s="432"/>
+      <c r="AG37" s="433"/>
+      <c r="AH37" s="427"/>
+      <c r="AJ37" s="452"/>
+      <c r="AK37" s="431"/>
+      <c r="AL37" s="432"/>
+      <c r="AM37" s="432"/>
+      <c r="AN37" s="435"/>
+      <c r="AO37" s="440"/>
+      <c r="AP37" s="441"/>
+      <c r="AQ37" s="441"/>
+      <c r="AR37" s="441"/>
+      <c r="AS37" s="441"/>
+      <c r="AT37" s="442"/>
+      <c r="AU37" s="439"/>
+      <c r="AV37" s="432"/>
+      <c r="AW37" s="432"/>
+      <c r="AX37" s="433"/>
+      <c r="AY37" s="427"/>
+      <c r="AZ37" s="480"/>
+    </row>
+    <row r="38" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B38" s="462" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="450" t="s">
+      <c r="C38" s="431"/>
+      <c r="D38" s="432"/>
+      <c r="E38" s="432"/>
+      <c r="F38" s="435"/>
+      <c r="G38" s="440"/>
+      <c r="H38" s="441"/>
+      <c r="I38" s="441"/>
+      <c r="J38" s="441"/>
+      <c r="K38" s="441"/>
+      <c r="L38" s="442"/>
+      <c r="M38" s="439"/>
+      <c r="N38" s="432"/>
+      <c r="O38" s="432"/>
+      <c r="P38" s="433"/>
+      <c r="Q38" s="459" t="s">
+        <v>98</v>
+      </c>
+      <c r="S38" s="462" t="s">
+        <v>100</v>
+      </c>
+      <c r="T38" s="431"/>
+      <c r="U38" s="432"/>
+      <c r="V38" s="432"/>
+      <c r="W38" s="435"/>
+      <c r="X38" s="440"/>
+      <c r="Y38" s="441"/>
+      <c r="Z38" s="441"/>
+      <c r="AA38" s="441"/>
+      <c r="AB38" s="441"/>
+      <c r="AC38" s="442"/>
+      <c r="AD38" s="439"/>
+      <c r="AE38" s="432"/>
+      <c r="AF38" s="432"/>
+      <c r="AG38" s="433"/>
+      <c r="AH38" s="459" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ38" s="462" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK38" s="431"/>
+      <c r="AL38" s="432"/>
+      <c r="AM38" s="432"/>
+      <c r="AN38" s="435"/>
+      <c r="AO38" s="440"/>
+      <c r="AP38" s="441"/>
+      <c r="AQ38" s="441"/>
+      <c r="AR38" s="441"/>
+      <c r="AS38" s="441"/>
+      <c r="AT38" s="442"/>
+      <c r="AU38" s="439"/>
+      <c r="AV38" s="432"/>
+      <c r="AW38" s="432"/>
+      <c r="AX38" s="433"/>
+      <c r="AY38" s="459" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ38" s="494"/>
+    </row>
+    <row r="39" spans="2:52" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="461"/>
+      <c r="C39" s="431"/>
+      <c r="D39" s="432"/>
+      <c r="E39" s="432"/>
+      <c r="F39" s="435"/>
+      <c r="G39" s="440"/>
+      <c r="H39" s="441"/>
+      <c r="I39" s="441"/>
+      <c r="J39" s="441"/>
+      <c r="K39" s="441"/>
+      <c r="L39" s="442"/>
+      <c r="M39" s="439"/>
+      <c r="N39" s="432"/>
+      <c r="O39" s="432"/>
+      <c r="P39" s="433"/>
+      <c r="Q39" s="456"/>
+      <c r="S39" s="461"/>
+      <c r="T39" s="431"/>
+      <c r="U39" s="432"/>
+      <c r="V39" s="432"/>
+      <c r="W39" s="435"/>
+      <c r="X39" s="440"/>
+      <c r="Y39" s="441"/>
+      <c r="Z39" s="441"/>
+      <c r="AA39" s="441"/>
+      <c r="AB39" s="441"/>
+      <c r="AC39" s="442"/>
+      <c r="AD39" s="439"/>
+      <c r="AE39" s="432"/>
+      <c r="AF39" s="432"/>
+      <c r="AG39" s="433"/>
+      <c r="AH39" s="456"/>
+      <c r="AJ39" s="461"/>
+      <c r="AK39" s="431"/>
+      <c r="AL39" s="432"/>
+      <c r="AM39" s="432"/>
+      <c r="AN39" s="435"/>
+      <c r="AO39" s="440"/>
+      <c r="AP39" s="441"/>
+      <c r="AQ39" s="441"/>
+      <c r="AR39" s="441"/>
+      <c r="AS39" s="441"/>
+      <c r="AT39" s="442"/>
+      <c r="AU39" s="439"/>
+      <c r="AV39" s="432"/>
+      <c r="AW39" s="432"/>
+      <c r="AX39" s="433"/>
+      <c r="AY39" s="456"/>
+      <c r="AZ39" s="493"/>
+    </row>
+    <row r="40" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B40" s="452"/>
+      <c r="C40" s="431"/>
+      <c r="D40" s="432"/>
+      <c r="E40" s="432"/>
+      <c r="F40" s="435"/>
+      <c r="G40" s="440"/>
+      <c r="H40" s="441"/>
+      <c r="I40" s="441"/>
+      <c r="J40" s="441"/>
+      <c r="K40" s="441"/>
+      <c r="L40" s="442"/>
+      <c r="M40" s="439"/>
+      <c r="N40" s="432"/>
+      <c r="O40" s="432"/>
+      <c r="P40" s="433"/>
+      <c r="Q40" s="427"/>
+      <c r="S40" s="452"/>
+      <c r="T40" s="431"/>
+      <c r="U40" s="432"/>
+      <c r="V40" s="432"/>
+      <c r="W40" s="435"/>
+      <c r="X40" s="440"/>
+      <c r="Y40" s="441"/>
+      <c r="Z40" s="441"/>
+      <c r="AA40" s="441"/>
+      <c r="AB40" s="441"/>
+      <c r="AC40" s="442"/>
+      <c r="AD40" s="439"/>
+      <c r="AE40" s="432"/>
+      <c r="AF40" s="432"/>
+      <c r="AG40" s="433"/>
+      <c r="AH40" s="427"/>
+      <c r="AJ40" s="452"/>
+      <c r="AK40" s="431"/>
+      <c r="AL40" s="432"/>
+      <c r="AM40" s="432"/>
+      <c r="AN40" s="435"/>
+      <c r="AO40" s="440"/>
+      <c r="AP40" s="441"/>
+      <c r="AQ40" s="441"/>
+      <c r="AR40" s="441"/>
+      <c r="AS40" s="441"/>
+      <c r="AT40" s="442"/>
+      <c r="AU40" s="439"/>
+      <c r="AV40" s="432"/>
+      <c r="AW40" s="432"/>
+      <c r="AX40" s="433"/>
+      <c r="AY40" s="427"/>
+      <c r="AZ40" s="480"/>
+    </row>
+    <row r="41" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="452"/>
+      <c r="C41" s="431"/>
+      <c r="D41" s="432"/>
+      <c r="E41" s="432"/>
+      <c r="F41" s="435"/>
+      <c r="G41" s="443"/>
+      <c r="H41" s="444"/>
+      <c r="I41" s="444"/>
+      <c r="J41" s="444"/>
+      <c r="K41" s="444"/>
+      <c r="L41" s="445"/>
+      <c r="M41" s="439"/>
+      <c r="N41" s="432"/>
+      <c r="O41" s="432"/>
+      <c r="P41" s="433"/>
+      <c r="Q41" s="427"/>
+      <c r="S41" s="452"/>
+      <c r="T41" s="431"/>
+      <c r="U41" s="432"/>
+      <c r="V41" s="432"/>
+      <c r="W41" s="435"/>
+      <c r="X41" s="443"/>
+      <c r="Y41" s="444"/>
+      <c r="Z41" s="444"/>
+      <c r="AA41" s="444"/>
+      <c r="AB41" s="444"/>
+      <c r="AC41" s="445"/>
+      <c r="AD41" s="439"/>
+      <c r="AE41" s="432"/>
+      <c r="AF41" s="432"/>
+      <c r="AG41" s="433"/>
+      <c r="AH41" s="427"/>
+      <c r="AJ41" s="452"/>
+      <c r="AK41" s="431"/>
+      <c r="AL41" s="432"/>
+      <c r="AM41" s="432"/>
+      <c r="AN41" s="435"/>
+      <c r="AO41" s="443"/>
+      <c r="AP41" s="444"/>
+      <c r="AQ41" s="444"/>
+      <c r="AR41" s="444"/>
+      <c r="AS41" s="444"/>
+      <c r="AT41" s="445"/>
+      <c r="AU41" s="439"/>
+      <c r="AV41" s="432"/>
+      <c r="AW41" s="432"/>
+      <c r="AX41" s="433"/>
+      <c r="AY41" s="427"/>
+      <c r="AZ41" s="480"/>
+    </row>
+    <row r="42" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B42" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="431"/>
+      <c r="D42" s="432"/>
+      <c r="E42" s="432"/>
+      <c r="F42" s="432"/>
+      <c r="G42" s="426"/>
+      <c r="H42" s="426"/>
+      <c r="I42" s="426"/>
+      <c r="J42" s="426"/>
+      <c r="K42" s="426"/>
+      <c r="L42" s="426"/>
+      <c r="M42" s="432"/>
+      <c r="N42" s="432"/>
+      <c r="O42" s="432"/>
+      <c r="P42" s="433"/>
+      <c r="Q42" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="S42" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="T42" s="431"/>
+      <c r="U42" s="432"/>
+      <c r="V42" s="432"/>
+      <c r="W42" s="432"/>
+      <c r="X42" s="426"/>
+      <c r="Y42" s="426"/>
+      <c r="Z42" s="426"/>
+      <c r="AA42" s="426"/>
+      <c r="AB42" s="426"/>
+      <c r="AC42" s="426"/>
+      <c r="AD42" s="432"/>
+      <c r="AE42" s="432"/>
+      <c r="AF42" s="432"/>
+      <c r="AG42" s="433"/>
+      <c r="AH42" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ42" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK42" s="431"/>
+      <c r="AL42" s="432"/>
+      <c r="AM42" s="432"/>
+      <c r="AN42" s="432"/>
+      <c r="AO42" s="426"/>
+      <c r="AP42" s="426"/>
+      <c r="AQ42" s="426"/>
+      <c r="AR42" s="426"/>
+      <c r="AS42" s="426"/>
+      <c r="AT42" s="426"/>
+      <c r="AU42" s="432"/>
+      <c r="AV42" s="432"/>
+      <c r="AW42" s="432"/>
+      <c r="AX42" s="433"/>
+      <c r="AY42" s="458" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ42" s="492"/>
+    </row>
+    <row r="43" spans="2:52" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="461"/>
+      <c r="C43" s="431"/>
+      <c r="D43" s="432"/>
+      <c r="E43" s="432"/>
+      <c r="F43" s="432"/>
+      <c r="G43" s="432"/>
+      <c r="H43" s="432"/>
+      <c r="I43" s="432"/>
+      <c r="J43" s="432"/>
+      <c r="K43" s="432"/>
+      <c r="L43" s="432"/>
+      <c r="M43" s="432"/>
+      <c r="N43" s="432"/>
+      <c r="O43" s="432"/>
+      <c r="P43" s="433"/>
+      <c r="Q43" s="456"/>
+      <c r="S43" s="461"/>
+      <c r="T43" s="431"/>
+      <c r="U43" s="432"/>
+      <c r="V43" s="432"/>
+      <c r="W43" s="432"/>
+      <c r="X43" s="432"/>
+      <c r="Y43" s="432"/>
+      <c r="Z43" s="432"/>
+      <c r="AA43" s="432"/>
+      <c r="AB43" s="432"/>
+      <c r="AC43" s="432"/>
+      <c r="AD43" s="432"/>
+      <c r="AE43" s="432"/>
+      <c r="AF43" s="432"/>
+      <c r="AG43" s="433"/>
+      <c r="AH43" s="456"/>
+      <c r="AJ43" s="461"/>
+      <c r="AK43" s="431"/>
+      <c r="AL43" s="432"/>
+      <c r="AM43" s="432"/>
+      <c r="AN43" s="432"/>
+      <c r="AO43" s="432"/>
+      <c r="AP43" s="432"/>
+      <c r="AQ43" s="432"/>
+      <c r="AR43" s="432"/>
+      <c r="AS43" s="432"/>
+      <c r="AT43" s="432"/>
+      <c r="AU43" s="432"/>
+      <c r="AV43" s="432"/>
+      <c r="AW43" s="432"/>
+      <c r="AX43" s="433"/>
+      <c r="AY43" s="456"/>
+      <c r="AZ43" s="493"/>
+    </row>
+    <row r="44" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B44" s="452"/>
+      <c r="C44" s="431"/>
+      <c r="D44" s="432"/>
+      <c r="E44" s="432"/>
+      <c r="F44" s="432"/>
+      <c r="G44" s="432"/>
+      <c r="H44" s="432"/>
+      <c r="I44" s="432"/>
+      <c r="J44" s="432"/>
+      <c r="K44" s="432"/>
+      <c r="L44" s="432"/>
+      <c r="M44" s="432"/>
+      <c r="N44" s="432"/>
+      <c r="O44" s="432"/>
+      <c r="P44" s="433"/>
+      <c r="Q44" s="427"/>
+      <c r="S44" s="452"/>
+      <c r="T44" s="431"/>
+      <c r="U44" s="432"/>
+      <c r="V44" s="432"/>
+      <c r="W44" s="432"/>
+      <c r="X44" s="432"/>
+      <c r="Y44" s="432"/>
+      <c r="Z44" s="432"/>
+      <c r="AA44" s="432"/>
+      <c r="AB44" s="432"/>
+      <c r="AC44" s="432"/>
+      <c r="AD44" s="432"/>
+      <c r="AE44" s="432"/>
+      <c r="AF44" s="432"/>
+      <c r="AG44" s="433"/>
+      <c r="AH44" s="427"/>
+      <c r="AJ44" s="452"/>
+      <c r="AK44" s="431"/>
+      <c r="AL44" s="432"/>
+      <c r="AM44" s="432"/>
+      <c r="AN44" s="432"/>
+      <c r="AO44" s="432"/>
+      <c r="AP44" s="432"/>
+      <c r="AQ44" s="432"/>
+      <c r="AR44" s="432"/>
+      <c r="AS44" s="432"/>
+      <c r="AT44" s="432"/>
+      <c r="AU44" s="432"/>
+      <c r="AV44" s="432"/>
+      <c r="AW44" s="432"/>
+      <c r="AX44" s="433"/>
+      <c r="AY44" s="427"/>
+      <c r="AZ44" s="480"/>
+    </row>
+    <row r="45" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="452"/>
+      <c r="C45" s="446"/>
+      <c r="D45" s="447"/>
+      <c r="E45" s="447"/>
+      <c r="F45" s="447"/>
+      <c r="G45" s="447"/>
+      <c r="H45" s="447"/>
+      <c r="I45" s="447"/>
+      <c r="J45" s="447"/>
+      <c r="K45" s="447"/>
+      <c r="L45" s="447"/>
+      <c r="M45" s="447"/>
+      <c r="N45" s="447"/>
+      <c r="O45" s="447"/>
+      <c r="P45" s="448"/>
+      <c r="Q45" s="427"/>
+      <c r="S45" s="452"/>
+      <c r="T45" s="446"/>
+      <c r="U45" s="447"/>
+      <c r="V45" s="447"/>
+      <c r="W45" s="447"/>
+      <c r="X45" s="447"/>
+      <c r="Y45" s="447"/>
+      <c r="Z45" s="447"/>
+      <c r="AA45" s="447"/>
+      <c r="AB45" s="447"/>
+      <c r="AC45" s="447"/>
+      <c r="AD45" s="447"/>
+      <c r="AE45" s="447"/>
+      <c r="AF45" s="447"/>
+      <c r="AG45" s="448"/>
+      <c r="AH45" s="427"/>
+      <c r="AJ45" s="452"/>
+      <c r="AK45" s="446"/>
+      <c r="AL45" s="447"/>
+      <c r="AM45" s="447"/>
+      <c r="AN45" s="447"/>
+      <c r="AO45" s="447"/>
+      <c r="AP45" s="447"/>
+      <c r="AQ45" s="447"/>
+      <c r="AR45" s="447"/>
+      <c r="AS45" s="447"/>
+      <c r="AT45" s="447"/>
+      <c r="AU45" s="447"/>
+      <c r="AV45" s="447"/>
+      <c r="AW45" s="447"/>
+      <c r="AX45" s="448"/>
+      <c r="AY45" s="427"/>
+      <c r="AZ45" s="480"/>
+    </row>
+    <row r="46" spans="2:52" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="453"/>
+      <c r="C46" s="472"/>
+      <c r="D46" s="472"/>
+      <c r="E46" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="456"/>
+      <c r="G46" s="472"/>
+      <c r="H46" s="472"/>
+      <c r="I46" s="455" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="451" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="495" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" s="496"/>
-      <c r="Q8" s="509"/>
-      <c r="S8" s="445"/>
-      <c r="T8" s="447" t="s">
+      <c r="J46" s="456"/>
+      <c r="K46" s="472"/>
+      <c r="L46" s="472"/>
+      <c r="M46" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" s="456"/>
+      <c r="O46" s="472"/>
+      <c r="P46" s="472"/>
+      <c r="Q46" s="473"/>
+      <c r="S46" s="453"/>
+      <c r="T46" s="472"/>
+      <c r="U46" s="472"/>
+      <c r="V46" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="W46" s="456"/>
+      <c r="X46" s="472"/>
+      <c r="Y46" s="472"/>
+      <c r="Z46" s="455" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="449" t="s">
+      <c r="AA46" s="456"/>
+      <c r="AB46" s="472"/>
+      <c r="AC46" s="472"/>
+      <c r="AD46" s="457" t="s">
         <v>97</v>
       </c>
-      <c r="W8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="449" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="449" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="449" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="450" t="s">
+      <c r="AE46" s="456"/>
+      <c r="AF46" s="472"/>
+      <c r="AG46" s="472"/>
+      <c r="AH46" s="473"/>
+      <c r="AJ46" s="453"/>
+      <c r="AK46" s="472"/>
+      <c r="AL46" s="472"/>
+      <c r="AM46" s="457" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN46" s="456"/>
+      <c r="AO46" s="472"/>
+      <c r="AP46" s="472"/>
+      <c r="AQ46" s="455" t="s">
         <v>96</v>
       </c>
-      <c r="AE8" s="451" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="442"/>
-      <c r="AG8" s="443"/>
-      <c r="AH8" s="444"/>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B9" s="445"/>
-      <c r="C9" s="452">
-        <v>2</v>
-      </c>
-      <c r="D9" s="453">
-        <v>3</v>
-      </c>
-      <c r="E9" s="453">
-        <v>4</v>
-      </c>
-      <c r="F9" s="453">
-        <v>5</v>
-      </c>
-      <c r="G9" s="453">
-        <v>6</v>
-      </c>
-      <c r="H9" s="453">
-        <v>7</v>
-      </c>
-      <c r="I9" s="453">
-        <v>8</v>
-      </c>
-      <c r="J9" s="453">
-        <v>9</v>
-      </c>
-      <c r="K9" s="454">
-        <v>10</v>
-      </c>
-      <c r="L9" s="454"/>
-      <c r="M9" s="454">
-        <v>11</v>
-      </c>
-      <c r="N9" s="454"/>
-      <c r="O9" s="455">
-        <v>12</v>
-      </c>
-      <c r="P9" s="456"/>
-      <c r="Q9" s="457"/>
-      <c r="S9" s="445"/>
-      <c r="T9" s="452">
-        <v>2</v>
-      </c>
-      <c r="U9" s="453">
-        <v>3</v>
-      </c>
-      <c r="V9" s="453">
-        <v>4</v>
-      </c>
-      <c r="W9" s="453">
-        <v>5</v>
-      </c>
-      <c r="X9" s="453">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="453">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="453">
-        <v>8</v>
-      </c>
-      <c r="AA9" s="453">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="454">
-        <v>10</v>
-      </c>
-      <c r="AC9" s="454"/>
-      <c r="AD9" s="454">
-        <v>11</v>
-      </c>
-      <c r="AE9" s="454"/>
-      <c r="AF9" s="455">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="456"/>
-      <c r="AH9" s="457"/>
-    </row>
-    <row r="10" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="445"/>
-      <c r="C10" s="458">
-        <v>4</v>
-      </c>
-      <c r="D10" s="459">
-        <v>8</v>
-      </c>
-      <c r="E10" s="459">
-        <v>12</v>
-      </c>
-      <c r="F10" s="459">
-        <v>16</v>
-      </c>
-      <c r="G10" s="459">
-        <v>20</v>
-      </c>
-      <c r="H10" s="459">
-        <v>24</v>
-      </c>
-      <c r="I10" s="459">
-        <v>28</v>
-      </c>
-      <c r="J10" s="459">
-        <v>32</v>
-      </c>
-      <c r="K10" s="460">
-        <v>36</v>
-      </c>
-      <c r="L10" s="460"/>
-      <c r="M10" s="460">
-        <v>40</v>
-      </c>
-      <c r="N10" s="460"/>
-      <c r="O10" s="460">
-        <v>45</v>
-      </c>
-      <c r="P10" s="461"/>
-      <c r="Q10" s="457"/>
-      <c r="S10" s="445"/>
-      <c r="T10" s="458">
-        <v>4</v>
-      </c>
-      <c r="U10" s="459">
-        <v>8</v>
-      </c>
-      <c r="V10" s="459">
-        <v>12</v>
-      </c>
-      <c r="W10" s="459">
-        <v>16</v>
-      </c>
-      <c r="X10" s="459">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="459">
-        <v>24</v>
-      </c>
-      <c r="Z10" s="459">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="459">
-        <v>32</v>
-      </c>
-      <c r="AB10" s="460">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="460"/>
-      <c r="AD10" s="460">
-        <v>40</v>
-      </c>
-      <c r="AE10" s="460"/>
-      <c r="AF10" s="460">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="461"/>
-      <c r="AH10" s="457"/>
-    </row>
-    <row r="11" spans="2:34" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="445"/>
-      <c r="E11" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="463"/>
-      <c r="I11" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="463"/>
-      <c r="M11" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="463"/>
-      <c r="Q11" s="465"/>
-      <c r="S11" s="445"/>
-      <c r="V11" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="W11" s="463"/>
-      <c r="Z11" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA11" s="463"/>
-      <c r="AD11" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE11" s="463"/>
-      <c r="AH11" s="465"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="445"/>
-      <c r="C12" s="466"/>
-      <c r="D12" s="454"/>
-      <c r="E12" s="454"/>
-      <c r="F12" s="454"/>
-      <c r="G12" s="454"/>
-      <c r="H12" s="454"/>
-      <c r="I12" s="454"/>
-      <c r="J12" s="454"/>
-      <c r="K12" s="454"/>
-      <c r="L12" s="454"/>
-      <c r="M12" s="454"/>
-      <c r="N12" s="454"/>
-      <c r="O12" s="454"/>
-      <c r="P12" s="467"/>
-      <c r="Q12" s="465"/>
-      <c r="S12" s="445"/>
-      <c r="T12" s="466"/>
-      <c r="U12" s="454"/>
-      <c r="V12" s="454"/>
-      <c r="W12" s="454"/>
-      <c r="X12" s="454"/>
-      <c r="Y12" s="454"/>
-      <c r="Z12" s="454"/>
-      <c r="AA12" s="454"/>
-      <c r="AB12" s="454"/>
-      <c r="AC12" s="454"/>
-      <c r="AD12" s="454"/>
-      <c r="AE12" s="454"/>
-      <c r="AF12" s="454"/>
-      <c r="AG12" s="467"/>
-      <c r="AH12" s="465"/>
-    </row>
-    <row r="13" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="445"/>
-      <c r="C13" s="468"/>
-      <c r="D13" s="469"/>
-      <c r="E13" s="469"/>
-      <c r="F13" s="469"/>
-      <c r="G13" s="469"/>
-      <c r="H13" s="469"/>
-      <c r="I13" s="469"/>
-      <c r="J13" s="469"/>
-      <c r="K13" s="469"/>
-      <c r="L13" s="469"/>
-      <c r="M13" s="469"/>
-      <c r="N13" s="469"/>
-      <c r="O13" s="469"/>
-      <c r="P13" s="470"/>
-      <c r="Q13" s="465"/>
-      <c r="S13" s="445"/>
-      <c r="T13" s="468"/>
-      <c r="U13" s="469"/>
-      <c r="V13" s="469"/>
-      <c r="W13" s="469"/>
-      <c r="X13" s="469"/>
-      <c r="Y13" s="469"/>
-      <c r="Z13" s="469"/>
-      <c r="AA13" s="469"/>
-      <c r="AB13" s="469"/>
-      <c r="AC13" s="469"/>
-      <c r="AD13" s="469"/>
-      <c r="AE13" s="469"/>
-      <c r="AF13" s="469"/>
-      <c r="AG13" s="470"/>
-      <c r="AH13" s="465"/>
-    </row>
-    <row r="14" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="471" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="468"/>
-      <c r="D14" s="469"/>
-      <c r="E14" s="469"/>
-      <c r="F14" s="469"/>
-      <c r="G14" s="469"/>
-      <c r="H14" s="469"/>
-      <c r="I14" s="469"/>
-      <c r="J14" s="469"/>
-      <c r="K14" s="469"/>
-      <c r="L14" s="469"/>
-      <c r="M14" s="469"/>
-      <c r="N14" s="469"/>
-      <c r="O14" s="469"/>
-      <c r="P14" s="470"/>
-      <c r="Q14" s="472" t="s">
-        <v>104</v>
-      </c>
-      <c r="S14" s="471" t="s">
-        <v>103</v>
-      </c>
-      <c r="T14" s="468"/>
-      <c r="U14" s="469"/>
-      <c r="V14" s="469"/>
-      <c r="W14" s="469"/>
-      <c r="X14" s="469"/>
-      <c r="Y14" s="469"/>
-      <c r="Z14" s="469"/>
-      <c r="AA14" s="469"/>
-      <c r="AB14" s="469"/>
-      <c r="AC14" s="469"/>
-      <c r="AD14" s="469"/>
-      <c r="AE14" s="469"/>
-      <c r="AF14" s="469"/>
-      <c r="AG14" s="470"/>
-      <c r="AH14" s="472" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="473"/>
-      <c r="C15" s="468"/>
-      <c r="D15" s="469"/>
-      <c r="E15" s="469"/>
-      <c r="F15" s="469"/>
-      <c r="G15" s="474"/>
-      <c r="H15" s="474"/>
-      <c r="I15" s="474"/>
-      <c r="J15" s="474"/>
-      <c r="K15" s="474"/>
-      <c r="L15" s="474"/>
-      <c r="M15" s="469"/>
-      <c r="N15" s="469"/>
-      <c r="O15" s="469"/>
-      <c r="P15" s="470"/>
-      <c r="Q15" s="463"/>
-      <c r="S15" s="473"/>
-      <c r="T15" s="468"/>
-      <c r="U15" s="469"/>
-      <c r="V15" s="469"/>
-      <c r="W15" s="469"/>
-      <c r="X15" s="474"/>
-      <c r="Y15" s="474"/>
-      <c r="Z15" s="474"/>
-      <c r="AA15" s="474"/>
-      <c r="AB15" s="474"/>
-      <c r="AC15" s="474"/>
-      <c r="AD15" s="469"/>
-      <c r="AE15" s="469"/>
-      <c r="AF15" s="469"/>
-      <c r="AG15" s="470"/>
-      <c r="AH15" s="463"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="445"/>
-      <c r="C16" s="468"/>
-      <c r="D16" s="469"/>
-      <c r="E16" s="469"/>
-      <c r="F16" s="475"/>
-      <c r="G16" s="476"/>
-      <c r="H16" s="477"/>
-      <c r="I16" s="477"/>
-      <c r="J16" s="477"/>
-      <c r="K16" s="477"/>
-      <c r="L16" s="478"/>
-      <c r="M16" s="479"/>
-      <c r="N16" s="469"/>
-      <c r="O16" s="469"/>
-      <c r="P16" s="470"/>
-      <c r="Q16" s="465"/>
-      <c r="S16" s="445"/>
-      <c r="T16" s="468"/>
-      <c r="U16" s="469"/>
-      <c r="V16" s="469"/>
-      <c r="W16" s="475"/>
-      <c r="X16" s="476"/>
-      <c r="Y16" s="477"/>
-      <c r="Z16" s="477"/>
-      <c r="AA16" s="477"/>
-      <c r="AB16" s="477"/>
-      <c r="AC16" s="478"/>
-      <c r="AD16" s="479"/>
-      <c r="AE16" s="469"/>
-      <c r="AF16" s="469"/>
-      <c r="AG16" s="470"/>
-      <c r="AH16" s="465"/>
-    </row>
-    <row r="17" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="445"/>
-      <c r="C17" s="468"/>
-      <c r="D17" s="469"/>
-      <c r="E17" s="469"/>
-      <c r="F17" s="475"/>
-      <c r="G17" s="480"/>
-      <c r="H17" s="481"/>
-      <c r="I17" s="481"/>
-      <c r="J17" s="481"/>
-      <c r="K17" s="481"/>
-      <c r="L17" s="482"/>
-      <c r="M17" s="479"/>
-      <c r="N17" s="469"/>
-      <c r="O17" s="469"/>
-      <c r="P17" s="470"/>
-      <c r="Q17" s="465"/>
-      <c r="S17" s="445"/>
-      <c r="T17" s="468"/>
-      <c r="U17" s="469"/>
-      <c r="V17" s="469"/>
-      <c r="W17" s="475"/>
-      <c r="X17" s="480"/>
-      <c r="Y17" s="481"/>
-      <c r="Z17" s="481"/>
-      <c r="AA17" s="481"/>
-      <c r="AB17" s="481"/>
-      <c r="AC17" s="482"/>
-      <c r="AD17" s="479"/>
-      <c r="AE17" s="469"/>
-      <c r="AF17" s="469"/>
-      <c r="AG17" s="470"/>
-      <c r="AH17" s="465"/>
-    </row>
-    <row r="18" spans="2:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="483" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="468"/>
-      <c r="D18" s="469"/>
-      <c r="E18" s="469"/>
-      <c r="F18" s="475"/>
-      <c r="G18" s="480"/>
-      <c r="H18" s="481"/>
-      <c r="I18" s="481"/>
-      <c r="J18" s="481"/>
-      <c r="K18" s="481"/>
-      <c r="L18" s="482"/>
-      <c r="M18" s="479"/>
-      <c r="N18" s="469"/>
-      <c r="O18" s="469"/>
-      <c r="P18" s="470"/>
-      <c r="Q18" s="484" t="s">
-        <v>103</v>
-      </c>
-      <c r="S18" s="483" t="s">
-        <v>105</v>
-      </c>
-      <c r="T18" s="468"/>
-      <c r="U18" s="469"/>
-      <c r="V18" s="469"/>
-      <c r="W18" s="475"/>
-      <c r="X18" s="480"/>
-      <c r="Y18" s="481"/>
-      <c r="Z18" s="481"/>
-      <c r="AA18" s="481"/>
-      <c r="AB18" s="481"/>
-      <c r="AC18" s="482"/>
-      <c r="AD18" s="479"/>
-      <c r="AE18" s="469"/>
-      <c r="AF18" s="469"/>
-      <c r="AG18" s="470"/>
-      <c r="AH18" s="484" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="473"/>
-      <c r="C19" s="468"/>
-      <c r="D19" s="469"/>
-      <c r="E19" s="469"/>
-      <c r="F19" s="475"/>
-      <c r="G19" s="480"/>
-      <c r="H19" s="481"/>
-      <c r="I19" s="481"/>
-      <c r="J19" s="481"/>
-      <c r="K19" s="481"/>
-      <c r="L19" s="482"/>
-      <c r="M19" s="479"/>
-      <c r="N19" s="469"/>
-      <c r="O19" s="469"/>
-      <c r="P19" s="470"/>
-      <c r="Q19" s="463"/>
-      <c r="S19" s="473"/>
-      <c r="T19" s="468"/>
-      <c r="U19" s="469"/>
-      <c r="V19" s="469"/>
-      <c r="W19" s="475"/>
-      <c r="X19" s="480"/>
-      <c r="Y19" s="481"/>
-      <c r="Z19" s="481"/>
-      <c r="AA19" s="481"/>
-      <c r="AB19" s="481"/>
-      <c r="AC19" s="482"/>
-      <c r="AD19" s="479"/>
-      <c r="AE19" s="469"/>
-      <c r="AF19" s="469"/>
-      <c r="AG19" s="470"/>
-      <c r="AH19" s="463"/>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B20" s="445"/>
-      <c r="C20" s="468"/>
-      <c r="D20" s="469"/>
-      <c r="E20" s="469"/>
-      <c r="F20" s="475"/>
-      <c r="G20" s="480"/>
-      <c r="H20" s="481"/>
-      <c r="I20" s="481"/>
-      <c r="J20" s="481"/>
-      <c r="K20" s="481"/>
-      <c r="L20" s="482"/>
-      <c r="M20" s="479"/>
-      <c r="N20" s="469"/>
-      <c r="O20" s="469"/>
-      <c r="P20" s="470"/>
-      <c r="Q20" s="465"/>
-      <c r="S20" s="445"/>
-      <c r="T20" s="468"/>
-      <c r="U20" s="469"/>
-      <c r="V20" s="469"/>
-      <c r="W20" s="475"/>
-      <c r="X20" s="480"/>
-      <c r="Y20" s="481"/>
-      <c r="Z20" s="481"/>
-      <c r="AA20" s="481"/>
-      <c r="AB20" s="481"/>
-      <c r="AC20" s="482"/>
-      <c r="AD20" s="479"/>
-      <c r="AE20" s="469"/>
-      <c r="AF20" s="469"/>
-      <c r="AG20" s="470"/>
-      <c r="AH20" s="465"/>
-    </row>
-    <row r="21" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="445"/>
-      <c r="C21" s="468"/>
-      <c r="D21" s="469"/>
-      <c r="E21" s="469"/>
-      <c r="F21" s="475"/>
-      <c r="G21" s="485"/>
-      <c r="H21" s="486"/>
-      <c r="I21" s="486"/>
-      <c r="J21" s="486"/>
-      <c r="K21" s="486"/>
-      <c r="L21" s="487"/>
-      <c r="M21" s="479"/>
-      <c r="N21" s="469"/>
-      <c r="O21" s="469"/>
-      <c r="P21" s="470"/>
-      <c r="Q21" s="465"/>
-      <c r="S21" s="445"/>
-      <c r="T21" s="468"/>
-      <c r="U21" s="469"/>
-      <c r="V21" s="469"/>
-      <c r="W21" s="475"/>
-      <c r="X21" s="485"/>
-      <c r="Y21" s="486"/>
-      <c r="Z21" s="486"/>
-      <c r="AA21" s="486"/>
-      <c r="AB21" s="486"/>
-      <c r="AC21" s="487"/>
-      <c r="AD21" s="479"/>
-      <c r="AE21" s="469"/>
-      <c r="AF21" s="469"/>
-      <c r="AG21" s="470"/>
-      <c r="AH21" s="465"/>
-    </row>
-    <row r="22" spans="2:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="471" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="468"/>
-      <c r="D22" s="469"/>
-      <c r="E22" s="469"/>
-      <c r="F22" s="469"/>
-      <c r="G22" s="455"/>
-      <c r="H22" s="455"/>
-      <c r="I22" s="455"/>
-      <c r="J22" s="455"/>
-      <c r="K22" s="455"/>
-      <c r="L22" s="455"/>
-      <c r="M22" s="469"/>
-      <c r="N22" s="469"/>
-      <c r="O22" s="469"/>
-      <c r="P22" s="470"/>
-      <c r="Q22" s="472" t="s">
-        <v>104</v>
-      </c>
-      <c r="S22" s="471" t="s">
-        <v>103</v>
-      </c>
-      <c r="T22" s="468"/>
-      <c r="U22" s="469"/>
-      <c r="V22" s="469"/>
-      <c r="W22" s="469"/>
-      <c r="X22" s="455"/>
-      <c r="Y22" s="455"/>
-      <c r="Z22" s="455"/>
-      <c r="AA22" s="455"/>
-      <c r="AB22" s="455"/>
-      <c r="AC22" s="455"/>
-      <c r="AD22" s="469"/>
-      <c r="AE22" s="469"/>
-      <c r="AF22" s="469"/>
-      <c r="AG22" s="470"/>
-      <c r="AH22" s="472" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="473"/>
-      <c r="C23" s="468"/>
-      <c r="D23" s="469"/>
-      <c r="E23" s="469"/>
-      <c r="F23" s="469"/>
-      <c r="G23" s="469"/>
-      <c r="H23" s="469"/>
-      <c r="I23" s="469"/>
-      <c r="J23" s="469"/>
-      <c r="K23" s="469"/>
-      <c r="L23" s="469"/>
-      <c r="M23" s="469"/>
-      <c r="N23" s="469"/>
-      <c r="O23" s="469"/>
-      <c r="P23" s="470"/>
-      <c r="Q23" s="463"/>
-      <c r="S23" s="473"/>
-      <c r="T23" s="468"/>
-      <c r="U23" s="469"/>
-      <c r="V23" s="469"/>
-      <c r="W23" s="469"/>
-      <c r="X23" s="469"/>
-      <c r="Y23" s="469"/>
-      <c r="Z23" s="469"/>
-      <c r="AA23" s="469"/>
-      <c r="AB23" s="469"/>
-      <c r="AC23" s="469"/>
-      <c r="AD23" s="469"/>
-      <c r="AE23" s="469"/>
-      <c r="AF23" s="469"/>
-      <c r="AG23" s="470"/>
-      <c r="AH23" s="463"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="445"/>
-      <c r="C24" s="468"/>
-      <c r="D24" s="469"/>
-      <c r="E24" s="469"/>
-      <c r="F24" s="469"/>
-      <c r="G24" s="469"/>
-      <c r="H24" s="469"/>
-      <c r="I24" s="469"/>
-      <c r="J24" s="469"/>
-      <c r="K24" s="469"/>
-      <c r="L24" s="469"/>
-      <c r="M24" s="469"/>
-      <c r="N24" s="469"/>
-      <c r="O24" s="469"/>
-      <c r="P24" s="470"/>
-      <c r="Q24" s="465"/>
-      <c r="S24" s="445"/>
-      <c r="T24" s="468"/>
-      <c r="U24" s="469"/>
-      <c r="V24" s="469"/>
-      <c r="W24" s="469"/>
-      <c r="X24" s="469"/>
-      <c r="Y24" s="469"/>
-      <c r="Z24" s="469"/>
-      <c r="AA24" s="469"/>
-      <c r="AB24" s="469"/>
-      <c r="AC24" s="469"/>
-      <c r="AD24" s="469"/>
-      <c r="AE24" s="469"/>
-      <c r="AF24" s="469"/>
-      <c r="AG24" s="470"/>
-      <c r="AH24" s="465"/>
-    </row>
-    <row r="25" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="445"/>
-      <c r="C25" s="488"/>
-      <c r="D25" s="489"/>
-      <c r="E25" s="489"/>
-      <c r="F25" s="489"/>
-      <c r="G25" s="489"/>
-      <c r="H25" s="489"/>
-      <c r="I25" s="489"/>
-      <c r="J25" s="489"/>
-      <c r="K25" s="489"/>
-      <c r="L25" s="489"/>
-      <c r="M25" s="489"/>
-      <c r="N25" s="489"/>
-      <c r="O25" s="489"/>
-      <c r="P25" s="490"/>
-      <c r="Q25" s="465"/>
-      <c r="S25" s="445"/>
-      <c r="T25" s="488"/>
-      <c r="U25" s="489"/>
-      <c r="V25" s="489"/>
-      <c r="W25" s="489"/>
-      <c r="X25" s="489"/>
-      <c r="Y25" s="489"/>
-      <c r="Z25" s="489"/>
-      <c r="AA25" s="489"/>
-      <c r="AB25" s="489"/>
-      <c r="AC25" s="489"/>
-      <c r="AD25" s="489"/>
-      <c r="AE25" s="489"/>
-      <c r="AF25" s="489"/>
-      <c r="AG25" s="490"/>
-      <c r="AH25" s="465"/>
-      <c r="AJ25" s="491"/>
-    </row>
-    <row r="26" spans="2:36" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="431"/>
-      <c r="C26" s="432"/>
-      <c r="D26" s="432"/>
-      <c r="E26" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="463"/>
-      <c r="G26" s="432"/>
-      <c r="H26" s="432"/>
-      <c r="I26" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="463"/>
-      <c r="K26" s="432"/>
-      <c r="L26" s="432"/>
-      <c r="M26" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="N26" s="463"/>
-      <c r="O26" s="432"/>
-      <c r="P26" s="432"/>
-      <c r="Q26" s="433"/>
-      <c r="S26" s="431"/>
-      <c r="T26" s="432"/>
-      <c r="U26" s="432"/>
-      <c r="V26" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="W26" s="463"/>
-      <c r="X26" s="432"/>
-      <c r="Y26" s="432"/>
-      <c r="Z26" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA26" s="463"/>
-      <c r="AB26" s="432"/>
-      <c r="AC26" s="432"/>
-      <c r="AD26" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE26" s="463"/>
-      <c r="AF26" s="432"/>
-      <c r="AG26" s="432"/>
-      <c r="AH26" s="433"/>
-    </row>
-    <row r="27" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="425" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="426"/>
-      <c r="D28" s="426"/>
-      <c r="E28" s="426"/>
-      <c r="F28" s="426"/>
-      <c r="G28" s="426"/>
-      <c r="H28" s="426"/>
-      <c r="I28" s="426"/>
-      <c r="J28" s="426"/>
-      <c r="K28" s="426"/>
-      <c r="L28" s="426"/>
-      <c r="M28" s="426"/>
-      <c r="N28" s="426"/>
-      <c r="O28" s="426"/>
-      <c r="P28" s="426"/>
-      <c r="Q28" s="427"/>
-      <c r="S28" s="425" t="s">
-        <v>91</v>
-      </c>
-      <c r="T28" s="426"/>
-      <c r="U28" s="426"/>
-      <c r="V28" s="426"/>
-      <c r="W28" s="426"/>
-      <c r="X28" s="426"/>
-      <c r="Y28" s="426"/>
-      <c r="Z28" s="426"/>
-      <c r="AA28" s="426"/>
-      <c r="AB28" s="426"/>
-      <c r="AC28" s="426"/>
-      <c r="AD28" s="426"/>
-      <c r="AE28" s="426"/>
-      <c r="AF28" s="426"/>
-      <c r="AG28" s="426"/>
-      <c r="AH28" s="427"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B29" s="428"/>
-      <c r="C29" s="429"/>
-      <c r="D29" s="429"/>
-      <c r="E29" s="429"/>
-      <c r="F29" s="429"/>
-      <c r="G29" s="429"/>
-      <c r="H29" s="429"/>
-      <c r="I29" s="429"/>
-      <c r="J29" s="429"/>
-      <c r="K29" s="429"/>
-      <c r="L29" s="429"/>
-      <c r="M29" s="429"/>
-      <c r="N29" s="429"/>
-      <c r="O29" s="429"/>
-      <c r="P29" s="429"/>
-      <c r="Q29" s="430"/>
-      <c r="S29" s="428"/>
-      <c r="T29" s="429"/>
-      <c r="U29" s="429"/>
-      <c r="V29" s="429"/>
-      <c r="W29" s="429"/>
-      <c r="X29" s="429"/>
-      <c r="Y29" s="429"/>
-      <c r="Z29" s="429"/>
-      <c r="AA29" s="429"/>
-      <c r="AB29" s="429"/>
-      <c r="AC29" s="429"/>
-      <c r="AD29" s="429"/>
-      <c r="AE29" s="429"/>
-      <c r="AF29" s="429"/>
-      <c r="AG29" s="429"/>
-      <c r="AH29" s="430"/>
-    </row>
-    <row r="30" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="431"/>
-      <c r="C30" s="432"/>
-      <c r="D30" s="432"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="432"/>
-      <c r="G30" s="432"/>
-      <c r="H30" s="432"/>
-      <c r="I30" s="432"/>
-      <c r="J30" s="432"/>
-      <c r="K30" s="432"/>
-      <c r="L30" s="432"/>
-      <c r="M30" s="432"/>
-      <c r="N30" s="432"/>
-      <c r="O30" s="432"/>
-      <c r="P30" s="432"/>
-      <c r="Q30" s="433"/>
-      <c r="S30" s="431"/>
-      <c r="T30" s="432"/>
-      <c r="U30" s="432"/>
-      <c r="V30" s="432"/>
-      <c r="W30" s="432"/>
-      <c r="X30" s="432"/>
-      <c r="Y30" s="432"/>
-      <c r="Z30" s="432"/>
-      <c r="AA30" s="432"/>
-      <c r="AB30" s="432"/>
-      <c r="AC30" s="432"/>
-      <c r="AD30" s="432"/>
-      <c r="AE30" s="432"/>
-      <c r="AF30" s="432"/>
-      <c r="AG30" s="432"/>
-      <c r="AH30" s="433"/>
-    </row>
-    <row r="31" spans="2:36" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="434" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="435"/>
-      <c r="D31" s="435"/>
-      <c r="E31" s="436"/>
-      <c r="G31" s="434" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="435"/>
-      <c r="I31" s="436"/>
-      <c r="J31" s="437"/>
-      <c r="K31" s="434" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="436"/>
-      <c r="N31" s="438"/>
-      <c r="O31" s="439" t="s">
-        <v>95</v>
-      </c>
-      <c r="P31" s="440"/>
-      <c r="Q31" s="441"/>
-      <c r="S31" s="434" t="s">
-        <v>92</v>
-      </c>
-      <c r="T31" s="435"/>
-      <c r="U31" s="435"/>
-      <c r="V31" s="436"/>
-      <c r="X31" s="434" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y31" s="435"/>
-      <c r="Z31" s="436"/>
-      <c r="AA31" s="437"/>
-      <c r="AB31" s="434" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC31" s="436"/>
-      <c r="AE31" s="438"/>
-      <c r="AF31" s="439" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG31" s="440"/>
-      <c r="AH31" s="441"/>
-    </row>
-    <row r="32" spans="2:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="442"/>
-      <c r="C32" s="443"/>
-      <c r="D32" s="443"/>
-      <c r="E32" s="444"/>
-      <c r="G32" s="442"/>
-      <c r="H32" s="443"/>
-      <c r="I32" s="444"/>
-      <c r="J32" s="437"/>
-      <c r="K32" s="442"/>
-      <c r="L32" s="444"/>
-      <c r="N32" s="437"/>
-      <c r="O32" s="434"/>
-      <c r="P32" s="435"/>
-      <c r="Q32" s="436"/>
-      <c r="S32" s="442"/>
-      <c r="T32" s="443"/>
-      <c r="U32" s="443"/>
-      <c r="V32" s="444"/>
-      <c r="X32" s="442"/>
-      <c r="Y32" s="443"/>
-      <c r="Z32" s="444"/>
-      <c r="AA32" s="437"/>
-      <c r="AB32" s="442"/>
-      <c r="AC32" s="444"/>
-      <c r="AE32" s="437"/>
-      <c r="AF32" s="434"/>
-      <c r="AG32" s="435"/>
-      <c r="AH32" s="436"/>
-    </row>
-    <row r="33" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="445"/>
-      <c r="N33" s="446"/>
-      <c r="O33" s="434"/>
-      <c r="P33" s="435"/>
-      <c r="Q33" s="436"/>
-      <c r="S33" s="445"/>
-      <c r="AE33" s="446"/>
-      <c r="AF33" s="434"/>
-      <c r="AG33" s="435"/>
-      <c r="AH33" s="436"/>
-    </row>
-    <row r="34" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="445"/>
-      <c r="C34" s="447" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="449" t="s">
+      <c r="AR46" s="456"/>
+      <c r="AS46" s="472"/>
+      <c r="AT46" s="472"/>
+      <c r="AU46" s="457" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="449" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="449" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="449" t="s">
-        <v>100</v>
-      </c>
-      <c r="L34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="450" t="s">
-        <v>96</v>
-      </c>
-      <c r="N34" s="451" t="s">
-        <v>1</v>
-      </c>
-      <c r="O34" s="442"/>
-      <c r="P34" s="443"/>
-      <c r="Q34" s="444"/>
-      <c r="S34" s="445"/>
-      <c r="T34" s="447" t="s">
-        <v>96</v>
-      </c>
-      <c r="U34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="V34" s="449" t="s">
-        <v>97</v>
-      </c>
-      <c r="W34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="X34" s="449" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="449" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="449" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC34" s="448" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="450" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE34" s="451" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="442"/>
-      <c r="AG34" s="443"/>
-      <c r="AH34" s="444"/>
-    </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B35" s="445"/>
-      <c r="C35" s="452">
-        <v>2</v>
-      </c>
-      <c r="D35" s="453">
-        <v>3</v>
-      </c>
-      <c r="E35" s="453">
-        <v>4</v>
-      </c>
-      <c r="F35" s="453">
-        <v>5</v>
-      </c>
-      <c r="G35" s="453">
-        <v>6</v>
-      </c>
-      <c r="H35" s="453">
-        <v>7</v>
-      </c>
-      <c r="I35" s="453">
-        <v>8</v>
-      </c>
-      <c r="J35" s="453">
-        <v>9</v>
-      </c>
-      <c r="K35" s="454">
-        <v>10</v>
-      </c>
-      <c r="L35" s="454"/>
-      <c r="M35" s="454">
-        <v>11</v>
-      </c>
-      <c r="N35" s="454"/>
-      <c r="O35" s="455">
-        <v>12</v>
-      </c>
-      <c r="P35" s="456"/>
-      <c r="Q35" s="457"/>
-      <c r="S35" s="445"/>
-      <c r="T35" s="452">
-        <v>2</v>
-      </c>
-      <c r="U35" s="453">
-        <v>3</v>
-      </c>
-      <c r="V35" s="453">
-        <v>4</v>
-      </c>
-      <c r="W35" s="453">
-        <v>5</v>
-      </c>
-      <c r="X35" s="453">
-        <v>6</v>
-      </c>
-      <c r="Y35" s="453">
-        <v>7</v>
-      </c>
-      <c r="Z35" s="453">
-        <v>8</v>
-      </c>
-      <c r="AA35" s="453">
-        <v>9</v>
-      </c>
-      <c r="AB35" s="454">
-        <v>10</v>
-      </c>
-      <c r="AC35" s="454"/>
-      <c r="AD35" s="454">
-        <v>11</v>
-      </c>
-      <c r="AE35" s="454"/>
-      <c r="AF35" s="455">
-        <v>12</v>
-      </c>
-      <c r="AG35" s="456"/>
-      <c r="AH35" s="457"/>
-    </row>
-    <row r="36" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="445"/>
-      <c r="C36" s="458">
-        <v>4</v>
-      </c>
-      <c r="D36" s="459">
-        <v>8</v>
-      </c>
-      <c r="E36" s="459">
-        <v>12</v>
-      </c>
-      <c r="F36" s="459">
-        <v>16</v>
-      </c>
-      <c r="G36" s="459">
-        <v>20</v>
-      </c>
-      <c r="H36" s="459">
-        <v>24</v>
-      </c>
-      <c r="I36" s="459">
-        <v>28</v>
-      </c>
-      <c r="J36" s="459">
-        <v>32</v>
-      </c>
-      <c r="K36" s="460">
-        <v>36</v>
-      </c>
-      <c r="L36" s="460"/>
-      <c r="M36" s="460">
-        <v>40</v>
-      </c>
-      <c r="N36" s="460"/>
-      <c r="O36" s="460">
-        <v>45</v>
-      </c>
-      <c r="P36" s="461"/>
-      <c r="Q36" s="457"/>
-      <c r="S36" s="445"/>
-      <c r="T36" s="458">
-        <v>4</v>
-      </c>
-      <c r="U36" s="459">
-        <v>8</v>
-      </c>
-      <c r="V36" s="459">
-        <v>12</v>
-      </c>
-      <c r="W36" s="459">
-        <v>16</v>
-      </c>
-      <c r="X36" s="459">
-        <v>20</v>
-      </c>
-      <c r="Y36" s="459">
-        <v>24</v>
-      </c>
-      <c r="Z36" s="459">
-        <v>28</v>
-      </c>
-      <c r="AA36" s="459">
-        <v>32</v>
-      </c>
-      <c r="AB36" s="460">
-        <v>36</v>
-      </c>
-      <c r="AC36" s="460"/>
-      <c r="AD36" s="460">
-        <v>40</v>
-      </c>
-      <c r="AE36" s="460"/>
-      <c r="AF36" s="460">
-        <v>45</v>
-      </c>
-      <c r="AG36" s="461"/>
-      <c r="AH36" s="457"/>
-    </row>
-    <row r="37" spans="2:34" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="445"/>
-      <c r="E37" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="463"/>
-      <c r="I37" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="J37" s="463"/>
-      <c r="M37" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="N37" s="463"/>
-      <c r="Q37" s="465"/>
-      <c r="S37" s="445"/>
-      <c r="V37" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="W37" s="463"/>
-      <c r="Z37" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA37" s="463"/>
-      <c r="AD37" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE37" s="463"/>
-      <c r="AH37" s="465"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B38" s="445"/>
-      <c r="C38" s="466"/>
-      <c r="D38" s="454"/>
-      <c r="E38" s="454"/>
-      <c r="F38" s="454"/>
-      <c r="G38" s="454"/>
-      <c r="H38" s="454"/>
-      <c r="I38" s="454"/>
-      <c r="J38" s="454"/>
-      <c r="K38" s="454"/>
-      <c r="L38" s="454"/>
-      <c r="M38" s="454"/>
-      <c r="N38" s="454"/>
-      <c r="O38" s="454"/>
-      <c r="P38" s="467"/>
-      <c r="Q38" s="465"/>
-      <c r="S38" s="445"/>
-      <c r="T38" s="466"/>
-      <c r="U38" s="454"/>
-      <c r="V38" s="454"/>
-      <c r="W38" s="454"/>
-      <c r="X38" s="454"/>
-      <c r="Y38" s="454"/>
-      <c r="Z38" s="454"/>
-      <c r="AA38" s="454"/>
-      <c r="AB38" s="454"/>
-      <c r="AC38" s="454"/>
-      <c r="AD38" s="454"/>
-      <c r="AE38" s="454"/>
-      <c r="AF38" s="454"/>
-      <c r="AG38" s="467"/>
-      <c r="AH38" s="465"/>
-    </row>
-    <row r="39" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="445"/>
-      <c r="C39" s="468"/>
-      <c r="D39" s="469"/>
-      <c r="E39" s="469"/>
-      <c r="F39" s="469"/>
-      <c r="G39" s="469"/>
-      <c r="H39" s="469"/>
-      <c r="I39" s="469"/>
-      <c r="J39" s="469"/>
-      <c r="K39" s="469"/>
-      <c r="L39" s="469"/>
-      <c r="M39" s="469"/>
-      <c r="N39" s="469"/>
-      <c r="O39" s="469"/>
-      <c r="P39" s="470"/>
-      <c r="Q39" s="465"/>
-      <c r="S39" s="445"/>
-      <c r="T39" s="468"/>
-      <c r="U39" s="469"/>
-      <c r="V39" s="469"/>
-      <c r="W39" s="469"/>
-      <c r="X39" s="469"/>
-      <c r="Y39" s="469"/>
-      <c r="Z39" s="469"/>
-      <c r="AA39" s="469"/>
-      <c r="AB39" s="469"/>
-      <c r="AC39" s="469"/>
-      <c r="AD39" s="469"/>
-      <c r="AE39" s="469"/>
-      <c r="AF39" s="469"/>
-      <c r="AG39" s="470"/>
-      <c r="AH39" s="465"/>
-    </row>
-    <row r="40" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="471" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="468"/>
-      <c r="D40" s="469"/>
-      <c r="E40" s="469"/>
-      <c r="F40" s="469"/>
-      <c r="G40" s="469"/>
-      <c r="H40" s="469"/>
-      <c r="I40" s="469"/>
-      <c r="J40" s="469"/>
-      <c r="K40" s="469"/>
-      <c r="L40" s="469"/>
-      <c r="M40" s="469"/>
-      <c r="N40" s="469"/>
-      <c r="O40" s="469"/>
-      <c r="P40" s="470"/>
-      <c r="Q40" s="472" t="s">
-        <v>104</v>
-      </c>
-      <c r="S40" s="471" t="s">
-        <v>103</v>
-      </c>
-      <c r="T40" s="468"/>
-      <c r="U40" s="469"/>
-      <c r="V40" s="469"/>
-      <c r="W40" s="469"/>
-      <c r="X40" s="469"/>
-      <c r="Y40" s="469"/>
-      <c r="Z40" s="469"/>
-      <c r="AA40" s="469"/>
-      <c r="AB40" s="469"/>
-      <c r="AC40" s="469"/>
-      <c r="AD40" s="469"/>
-      <c r="AE40" s="469"/>
-      <c r="AF40" s="469"/>
-      <c r="AG40" s="470"/>
-      <c r="AH40" s="472" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="473"/>
-      <c r="C41" s="468"/>
-      <c r="D41" s="469"/>
-      <c r="E41" s="469"/>
-      <c r="F41" s="469"/>
-      <c r="G41" s="474"/>
-      <c r="H41" s="474"/>
-      <c r="I41" s="474"/>
-      <c r="J41" s="474"/>
-      <c r="K41" s="474"/>
-      <c r="L41" s="474"/>
-      <c r="M41" s="469"/>
-      <c r="N41" s="469"/>
-      <c r="O41" s="469"/>
-      <c r="P41" s="470"/>
-      <c r="Q41" s="463"/>
-      <c r="S41" s="473"/>
-      <c r="T41" s="468"/>
-      <c r="U41" s="469"/>
-      <c r="V41" s="469"/>
-      <c r="W41" s="469"/>
-      <c r="X41" s="474"/>
-      <c r="Y41" s="474"/>
-      <c r="Z41" s="474"/>
-      <c r="AA41" s="474"/>
-      <c r="AB41" s="474"/>
-      <c r="AC41" s="474"/>
-      <c r="AD41" s="469"/>
-      <c r="AE41" s="469"/>
-      <c r="AF41" s="469"/>
-      <c r="AG41" s="470"/>
-      <c r="AH41" s="463"/>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B42" s="445"/>
-      <c r="C42" s="468"/>
-      <c r="D42" s="469"/>
-      <c r="E42" s="469"/>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
-      <c r="H42" s="477"/>
-      <c r="I42" s="477"/>
-      <c r="J42" s="477"/>
-      <c r="K42" s="477"/>
-      <c r="L42" s="478"/>
-      <c r="M42" s="479"/>
-      <c r="N42" s="469"/>
-      <c r="O42" s="469"/>
-      <c r="P42" s="470"/>
-      <c r="Q42" s="465"/>
-      <c r="S42" s="445"/>
-      <c r="T42" s="468"/>
-      <c r="U42" s="469"/>
-      <c r="V42" s="469"/>
-      <c r="W42" s="475"/>
-      <c r="X42" s="476"/>
-      <c r="Y42" s="477"/>
-      <c r="Z42" s="477"/>
-      <c r="AA42" s="477"/>
-      <c r="AB42" s="477"/>
-      <c r="AC42" s="478"/>
-      <c r="AD42" s="479"/>
-      <c r="AE42" s="469"/>
-      <c r="AF42" s="469"/>
-      <c r="AG42" s="470"/>
-      <c r="AH42" s="465"/>
-    </row>
-    <row r="43" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="445"/>
-      <c r="C43" s="468"/>
-      <c r="D43" s="469"/>
-      <c r="E43" s="469"/>
-      <c r="F43" s="475"/>
-      <c r="G43" s="480"/>
-      <c r="H43" s="481"/>
-      <c r="I43" s="481"/>
-      <c r="J43" s="481"/>
-      <c r="K43" s="481"/>
-      <c r="L43" s="482"/>
-      <c r="M43" s="479"/>
-      <c r="N43" s="469"/>
-      <c r="O43" s="469"/>
-      <c r="P43" s="470"/>
-      <c r="Q43" s="465"/>
-      <c r="S43" s="445"/>
-      <c r="T43" s="468"/>
-      <c r="U43" s="469"/>
-      <c r="V43" s="469"/>
-      <c r="W43" s="475"/>
-      <c r="X43" s="480"/>
-      <c r="Y43" s="481"/>
-      <c r="Z43" s="481"/>
-      <c r="AA43" s="481"/>
-      <c r="AB43" s="481"/>
-      <c r="AC43" s="482"/>
-      <c r="AD43" s="479"/>
-      <c r="AE43" s="469"/>
-      <c r="AF43" s="469"/>
-      <c r="AG43" s="470"/>
-      <c r="AH43" s="465"/>
-    </row>
-    <row r="44" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="483" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="468"/>
-      <c r="D44" s="469"/>
-      <c r="E44" s="469"/>
-      <c r="F44" s="475"/>
-      <c r="G44" s="480"/>
-      <c r="H44" s="481"/>
-      <c r="I44" s="481"/>
-      <c r="J44" s="481"/>
-      <c r="K44" s="481"/>
-      <c r="L44" s="482"/>
-      <c r="M44" s="479"/>
-      <c r="N44" s="469"/>
-      <c r="O44" s="469"/>
-      <c r="P44" s="470"/>
-      <c r="Q44" s="484" t="s">
-        <v>103</v>
-      </c>
-      <c r="S44" s="483" t="s">
-        <v>105</v>
-      </c>
-      <c r="T44" s="468"/>
-      <c r="U44" s="469"/>
-      <c r="V44" s="469"/>
-      <c r="W44" s="475"/>
-      <c r="X44" s="480"/>
-      <c r="Y44" s="481"/>
-      <c r="Z44" s="481"/>
-      <c r="AA44" s="481"/>
-      <c r="AB44" s="481"/>
-      <c r="AC44" s="482"/>
-      <c r="AD44" s="479"/>
-      <c r="AE44" s="469"/>
-      <c r="AF44" s="469"/>
-      <c r="AG44" s="470"/>
-      <c r="AH44" s="484" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="473"/>
-      <c r="C45" s="468"/>
-      <c r="D45" s="469"/>
-      <c r="E45" s="469"/>
-      <c r="F45" s="475"/>
-      <c r="G45" s="480"/>
-      <c r="H45" s="481"/>
-      <c r="I45" s="481"/>
-      <c r="J45" s="481"/>
-      <c r="K45" s="481"/>
-      <c r="L45" s="482"/>
-      <c r="M45" s="479"/>
-      <c r="N45" s="469"/>
-      <c r="O45" s="469"/>
-      <c r="P45" s="470"/>
-      <c r="Q45" s="463"/>
-      <c r="S45" s="473"/>
-      <c r="T45" s="468"/>
-      <c r="U45" s="469"/>
-      <c r="V45" s="469"/>
-      <c r="W45" s="475"/>
-      <c r="X45" s="480"/>
-      <c r="Y45" s="481"/>
-      <c r="Z45" s="481"/>
-      <c r="AA45" s="481"/>
-      <c r="AB45" s="481"/>
-      <c r="AC45" s="482"/>
-      <c r="AD45" s="479"/>
-      <c r="AE45" s="469"/>
-      <c r="AF45" s="469"/>
-      <c r="AG45" s="470"/>
-      <c r="AH45" s="463"/>
-    </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B46" s="445"/>
-      <c r="C46" s="468"/>
-      <c r="D46" s="469"/>
-      <c r="E46" s="469"/>
-      <c r="F46" s="475"/>
-      <c r="G46" s="480"/>
-      <c r="H46" s="481"/>
-      <c r="I46" s="481"/>
-      <c r="J46" s="481"/>
-      <c r="K46" s="481"/>
-      <c r="L46" s="482"/>
-      <c r="M46" s="479"/>
-      <c r="N46" s="469"/>
-      <c r="O46" s="469"/>
-      <c r="P46" s="470"/>
-      <c r="Q46" s="465"/>
-      <c r="S46" s="445"/>
-      <c r="T46" s="468"/>
-      <c r="U46" s="469"/>
-      <c r="V46" s="469"/>
-      <c r="W46" s="475"/>
-      <c r="X46" s="480"/>
-      <c r="Y46" s="481"/>
-      <c r="Z46" s="481"/>
-      <c r="AA46" s="481"/>
-      <c r="AB46" s="481"/>
-      <c r="AC46" s="482"/>
-      <c r="AD46" s="479"/>
-      <c r="AE46" s="469"/>
-      <c r="AF46" s="469"/>
-      <c r="AG46" s="470"/>
-      <c r="AH46" s="465"/>
-    </row>
-    <row r="47" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="445"/>
-      <c r="C47" s="468"/>
-      <c r="D47" s="469"/>
-      <c r="E47" s="469"/>
-      <c r="F47" s="475"/>
-      <c r="G47" s="485"/>
-      <c r="H47" s="486"/>
-      <c r="I47" s="486"/>
-      <c r="J47" s="486"/>
-      <c r="K47" s="486"/>
-      <c r="L47" s="487"/>
-      <c r="M47" s="479"/>
-      <c r="N47" s="469"/>
-      <c r="O47" s="469"/>
-      <c r="P47" s="470"/>
-      <c r="Q47" s="465"/>
-      <c r="S47" s="445"/>
-      <c r="T47" s="468"/>
-      <c r="U47" s="469"/>
-      <c r="V47" s="469"/>
-      <c r="W47" s="475"/>
-      <c r="X47" s="485"/>
-      <c r="Y47" s="486"/>
-      <c r="Z47" s="486"/>
-      <c r="AA47" s="486"/>
-      <c r="AB47" s="486"/>
-      <c r="AC47" s="487"/>
-      <c r="AD47" s="479"/>
-      <c r="AE47" s="469"/>
-      <c r="AF47" s="469"/>
-      <c r="AG47" s="470"/>
-      <c r="AH47" s="465"/>
-    </row>
-    <row r="48" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="471" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="468"/>
-      <c r="D48" s="469"/>
-      <c r="E48" s="469"/>
-      <c r="F48" s="469"/>
-      <c r="G48" s="455"/>
-      <c r="H48" s="455"/>
-      <c r="I48" s="455"/>
-      <c r="J48" s="455"/>
-      <c r="K48" s="455"/>
-      <c r="L48" s="455"/>
-      <c r="M48" s="469"/>
-      <c r="N48" s="469"/>
-      <c r="O48" s="469"/>
-      <c r="P48" s="470"/>
-      <c r="Q48" s="472" t="s">
-        <v>104</v>
-      </c>
-      <c r="S48" s="471" t="s">
-        <v>103</v>
-      </c>
-      <c r="T48" s="468"/>
-      <c r="U48" s="469"/>
-      <c r="V48" s="469"/>
-      <c r="W48" s="469"/>
-      <c r="X48" s="455"/>
-      <c r="Y48" s="455"/>
-      <c r="Z48" s="455"/>
-      <c r="AA48" s="455"/>
-      <c r="AB48" s="455"/>
-      <c r="AC48" s="455"/>
-      <c r="AD48" s="469"/>
-      <c r="AE48" s="469"/>
-      <c r="AF48" s="469"/>
-      <c r="AG48" s="470"/>
-      <c r="AH48" s="472" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="473"/>
-      <c r="C49" s="468"/>
-      <c r="D49" s="469"/>
-      <c r="E49" s="469"/>
-      <c r="F49" s="469"/>
-      <c r="G49" s="469"/>
-      <c r="H49" s="469"/>
-      <c r="I49" s="469"/>
-      <c r="J49" s="469"/>
-      <c r="K49" s="469"/>
-      <c r="L49" s="469"/>
-      <c r="M49" s="469"/>
-      <c r="N49" s="469"/>
-      <c r="O49" s="469"/>
-      <c r="P49" s="470"/>
-      <c r="Q49" s="463"/>
-      <c r="S49" s="473"/>
-      <c r="T49" s="468"/>
-      <c r="U49" s="469"/>
-      <c r="V49" s="469"/>
-      <c r="W49" s="469"/>
-      <c r="X49" s="469"/>
-      <c r="Y49" s="469"/>
-      <c r="Z49" s="469"/>
-      <c r="AA49" s="469"/>
-      <c r="AB49" s="469"/>
-      <c r="AC49" s="469"/>
-      <c r="AD49" s="469"/>
-      <c r="AE49" s="469"/>
-      <c r="AF49" s="469"/>
-      <c r="AG49" s="470"/>
-      <c r="AH49" s="463"/>
-    </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B50" s="445"/>
-      <c r="C50" s="468"/>
-      <c r="D50" s="469"/>
-      <c r="E50" s="469"/>
-      <c r="F50" s="469"/>
-      <c r="G50" s="469"/>
-      <c r="H50" s="469"/>
-      <c r="I50" s="469"/>
-      <c r="J50" s="469"/>
-      <c r="K50" s="469"/>
-      <c r="L50" s="469"/>
-      <c r="M50" s="469"/>
-      <c r="N50" s="469"/>
-      <c r="O50" s="469"/>
-      <c r="P50" s="470"/>
-      <c r="Q50" s="465"/>
-      <c r="S50" s="445"/>
-      <c r="T50" s="468"/>
-      <c r="U50" s="469"/>
-      <c r="V50" s="469"/>
-      <c r="W50" s="469"/>
-      <c r="X50" s="469"/>
-      <c r="Y50" s="469"/>
-      <c r="Z50" s="469"/>
-      <c r="AA50" s="469"/>
-      <c r="AB50" s="469"/>
-      <c r="AC50" s="469"/>
-      <c r="AD50" s="469"/>
-      <c r="AE50" s="469"/>
-      <c r="AF50" s="469"/>
-      <c r="AG50" s="470"/>
-      <c r="AH50" s="465"/>
-    </row>
-    <row r="51" spans="2:34" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="445"/>
-      <c r="C51" s="488"/>
-      <c r="D51" s="489"/>
-      <c r="E51" s="489"/>
-      <c r="F51" s="489"/>
-      <c r="G51" s="489"/>
-      <c r="H51" s="489"/>
-      <c r="I51" s="489"/>
-      <c r="J51" s="489"/>
-      <c r="K51" s="489"/>
-      <c r="L51" s="489"/>
-      <c r="M51" s="489"/>
-      <c r="N51" s="489"/>
-      <c r="O51" s="489"/>
-      <c r="P51" s="490"/>
-      <c r="Q51" s="465"/>
-      <c r="S51" s="445"/>
-      <c r="T51" s="488"/>
-      <c r="U51" s="489"/>
-      <c r="V51" s="489"/>
-      <c r="W51" s="489"/>
-      <c r="X51" s="489"/>
-      <c r="Y51" s="489"/>
-      <c r="Z51" s="489"/>
-      <c r="AA51" s="489"/>
-      <c r="AB51" s="489"/>
-      <c r="AC51" s="489"/>
-      <c r="AD51" s="489"/>
-      <c r="AE51" s="489"/>
-      <c r="AF51" s="489"/>
-      <c r="AG51" s="490"/>
-      <c r="AH51" s="465"/>
-    </row>
-    <row r="52" spans="2:34" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="431"/>
-      <c r="C52" s="432"/>
-      <c r="D52" s="432"/>
-      <c r="E52" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="463"/>
-      <c r="G52" s="432"/>
-      <c r="H52" s="432"/>
-      <c r="I52" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="J52" s="463"/>
-      <c r="K52" s="432"/>
-      <c r="L52" s="432"/>
-      <c r="M52" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="N52" s="463"/>
-      <c r="O52" s="432"/>
-      <c r="P52" s="432"/>
-      <c r="Q52" s="433"/>
-      <c r="S52" s="431"/>
-      <c r="T52" s="432"/>
-      <c r="U52" s="432"/>
-      <c r="V52" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="W52" s="463"/>
-      <c r="X52" s="432"/>
-      <c r="Y52" s="432"/>
-      <c r="Z52" s="462" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA52" s="463"/>
-      <c r="AB52" s="432"/>
-      <c r="AC52" s="432"/>
-      <c r="AD52" s="464" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE52" s="463"/>
-      <c r="AF52" s="432"/>
-      <c r="AG52" s="432"/>
-      <c r="AH52" s="433"/>
+      <c r="AV46" s="456"/>
+      <c r="AW46" s="472"/>
+      <c r="AX46" s="472"/>
+      <c r="AY46" s="473"/>
+      <c r="AZ46" s="480"/>
     </row>
   </sheetData>
-  <mergeCells count="288">
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="S2:AH2"/>
-    <mergeCell ref="S5:V6"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="AF5:AH8"/>
-    <mergeCell ref="C5:G7"/>
-    <mergeCell ref="H5:L7"/>
-    <mergeCell ref="M5:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="AF12:AG13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="T12:U13"/>
-    <mergeCell ref="V12:W13"/>
-    <mergeCell ref="X12:Y13"/>
-    <mergeCell ref="Z12:AA13"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="AB14:AC15"/>
-    <mergeCell ref="AD14:AE15"/>
-    <mergeCell ref="AF14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:U15"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:Y15"/>
-    <mergeCell ref="Z14:AA15"/>
-    <mergeCell ref="AD16:AE17"/>
-    <mergeCell ref="AF16:AG17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="T16:U17"/>
-    <mergeCell ref="V16:W17"/>
-    <mergeCell ref="X16:Y17"/>
-    <mergeCell ref="Z16:AA17"/>
-    <mergeCell ref="AB16:AC17"/>
-    <mergeCell ref="AB18:AC19"/>
-    <mergeCell ref="AD18:AE19"/>
-    <mergeCell ref="AF18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="V18:W19"/>
-    <mergeCell ref="X18:Y19"/>
-    <mergeCell ref="Z18:AA19"/>
-    <mergeCell ref="AD20:AE21"/>
-    <mergeCell ref="AF20:AG21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="O22:P23"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="T20:U21"/>
-    <mergeCell ref="V20:W21"/>
-    <mergeCell ref="X20:Y21"/>
-    <mergeCell ref="Z20:AA21"/>
-    <mergeCell ref="AB20:AC21"/>
-    <mergeCell ref="AB22:AC23"/>
-    <mergeCell ref="AD22:AE23"/>
-    <mergeCell ref="AF22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="AD24:AE25"/>
-    <mergeCell ref="AF24:AG25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="T24:U25"/>
-    <mergeCell ref="V24:W25"/>
-    <mergeCell ref="X24:Y25"/>
-    <mergeCell ref="Z24:AA25"/>
-    <mergeCell ref="AB24:AC25"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="S28:AH28"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="S31:V32"/>
-    <mergeCell ref="X31:Z32"/>
-    <mergeCell ref="AB31:AC32"/>
-    <mergeCell ref="O31:Q34"/>
-    <mergeCell ref="AF31:AH34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
+  <mergeCells count="432">
+    <mergeCell ref="AK44:AL45"/>
+    <mergeCell ref="AM44:AN45"/>
+    <mergeCell ref="AO44:AP45"/>
+    <mergeCell ref="AQ44:AR45"/>
+    <mergeCell ref="AS44:AT45"/>
+    <mergeCell ref="AU44:AV45"/>
+    <mergeCell ref="AW44:AX45"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="AK40:AL41"/>
+    <mergeCell ref="AM40:AN41"/>
+    <mergeCell ref="AO40:AP41"/>
+    <mergeCell ref="AQ40:AR41"/>
+    <mergeCell ref="AS40:AT41"/>
+    <mergeCell ref="AU40:AV41"/>
+    <mergeCell ref="AW40:AX41"/>
+    <mergeCell ref="AJ42:AJ43"/>
+    <mergeCell ref="AK42:AL43"/>
+    <mergeCell ref="AM42:AN43"/>
+    <mergeCell ref="AO42:AP43"/>
+    <mergeCell ref="AQ42:AR43"/>
+    <mergeCell ref="AS42:AT43"/>
+    <mergeCell ref="AU42:AV43"/>
+    <mergeCell ref="AW42:AX43"/>
+    <mergeCell ref="AY42:AY43"/>
+    <mergeCell ref="AK36:AL37"/>
+    <mergeCell ref="AM36:AN37"/>
+    <mergeCell ref="AO36:AP37"/>
+    <mergeCell ref="AQ36:AR37"/>
+    <mergeCell ref="AS36:AT37"/>
+    <mergeCell ref="AU36:AV37"/>
+    <mergeCell ref="AW36:AX37"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AK38:AL39"/>
+    <mergeCell ref="AM38:AN39"/>
+    <mergeCell ref="AO38:AP39"/>
+    <mergeCell ref="AQ38:AR39"/>
+    <mergeCell ref="AS38:AT39"/>
+    <mergeCell ref="AU38:AV39"/>
+    <mergeCell ref="AW38:AX39"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AL35"/>
+    <mergeCell ref="AM34:AN35"/>
+    <mergeCell ref="AO34:AP35"/>
+    <mergeCell ref="AQ34:AR35"/>
+    <mergeCell ref="AS34:AT35"/>
+    <mergeCell ref="AU34:AV35"/>
+    <mergeCell ref="AW34:AX35"/>
+    <mergeCell ref="AY34:AY35"/>
+    <mergeCell ref="AJ27:AJ33"/>
+    <mergeCell ref="AK27:AQ27"/>
+    <mergeCell ref="AR27:AX27"/>
+    <mergeCell ref="AY27:AY33"/>
+    <mergeCell ref="AW28:AX28"/>
+    <mergeCell ref="AS29:AT29"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="AW29:AX29"/>
+    <mergeCell ref="AS30:AT30"/>
+    <mergeCell ref="AU30:AV30"/>
+    <mergeCell ref="AW30:AX30"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AK32:AL33"/>
+    <mergeCell ref="AM32:AN33"/>
+    <mergeCell ref="AO32:AP33"/>
+    <mergeCell ref="AQ32:AR33"/>
+    <mergeCell ref="AS32:AT33"/>
+    <mergeCell ref="AU32:AV33"/>
+    <mergeCell ref="AW32:AX33"/>
+    <mergeCell ref="AY19:AY20"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="AU21:AV22"/>
+    <mergeCell ref="AW21:AX22"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AQ23:AR23"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="AK17:AL18"/>
+    <mergeCell ref="AM17:AN18"/>
+    <mergeCell ref="AO17:AP18"/>
+    <mergeCell ref="AQ17:AR18"/>
+    <mergeCell ref="AS17:AT18"/>
+    <mergeCell ref="AU17:AV18"/>
+    <mergeCell ref="AW17:AX18"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AL20"/>
+    <mergeCell ref="AM19:AN20"/>
+    <mergeCell ref="AO19:AP20"/>
+    <mergeCell ref="AQ19:AR20"/>
+    <mergeCell ref="AS19:AT20"/>
+    <mergeCell ref="AU19:AV20"/>
+    <mergeCell ref="AW19:AX20"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AK13:AL14"/>
+    <mergeCell ref="AM13:AN14"/>
+    <mergeCell ref="AO13:AP14"/>
+    <mergeCell ref="AQ13:AR14"/>
+    <mergeCell ref="AS13:AT14"/>
+    <mergeCell ref="AU13:AV14"/>
+    <mergeCell ref="AW13:AX14"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AK15:AL16"/>
+    <mergeCell ref="AM15:AN16"/>
+    <mergeCell ref="AO15:AP16"/>
+    <mergeCell ref="AQ15:AR16"/>
+    <mergeCell ref="AS15:AT16"/>
+    <mergeCell ref="AU15:AV16"/>
+    <mergeCell ref="AW15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AU9:AV10"/>
+    <mergeCell ref="AW9:AX10"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AL12"/>
+    <mergeCell ref="AM11:AN12"/>
+    <mergeCell ref="AO11:AP12"/>
+    <mergeCell ref="AQ11:AR12"/>
+    <mergeCell ref="AS11:AT12"/>
+    <mergeCell ref="AU11:AV12"/>
+    <mergeCell ref="AW11:AX12"/>
+    <mergeCell ref="AF34:AG35"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="AJ4:AJ10"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:AY10"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AK9:AL10"/>
+    <mergeCell ref="AM9:AN10"/>
+    <mergeCell ref="AO9:AP10"/>
+    <mergeCell ref="AQ9:AR10"/>
+    <mergeCell ref="AS9:AT10"/>
+    <mergeCell ref="S27:S33"/>
+    <mergeCell ref="T27:Z27"/>
+    <mergeCell ref="AA27:AG27"/>
+    <mergeCell ref="AH27:AH33"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="T32:U33"/>
+    <mergeCell ref="V32:W33"/>
+    <mergeCell ref="X32:Y33"/>
+    <mergeCell ref="Z32:AA33"/>
+    <mergeCell ref="AB32:AC33"/>
+    <mergeCell ref="AD32:AE33"/>
+    <mergeCell ref="AF32:AG33"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="T13:U14"/>
+    <mergeCell ref="V13:W14"/>
+    <mergeCell ref="X13:Y14"/>
+    <mergeCell ref="Z13:AA14"/>
+    <mergeCell ref="AB13:AC14"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="AF13:AG14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:U16"/>
+    <mergeCell ref="V15:W16"/>
+    <mergeCell ref="X15:Y16"/>
+    <mergeCell ref="Z15:AA16"/>
+    <mergeCell ref="AB15:AC16"/>
+    <mergeCell ref="AD15:AE16"/>
+    <mergeCell ref="AF15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="S4:S10"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="AH4:AH10"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="V9:W10"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="Z9:AA10"/>
+    <mergeCell ref="AB9:AC10"/>
+    <mergeCell ref="AD9:AE10"/>
+    <mergeCell ref="AF9:AG10"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M36:N37"/>
+    <mergeCell ref="O36:P37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="I38:J39"/>
+    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="M38:N39"/>
+    <mergeCell ref="O38:P39"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:Q33"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:P33"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="Q4:Q10"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:U12"/>
+    <mergeCell ref="V11:W12"/>
+    <mergeCell ref="X11:Y12"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="AB11:AC12"/>
+    <mergeCell ref="AD11:AE12"/>
+    <mergeCell ref="AF11:AG12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="T17:U18"/>
+    <mergeCell ref="V17:W18"/>
+    <mergeCell ref="X17:Y18"/>
+    <mergeCell ref="Z17:AA18"/>
+    <mergeCell ref="AB17:AC18"/>
+    <mergeCell ref="AD17:AE18"/>
+    <mergeCell ref="AF17:AG18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:U20"/>
+    <mergeCell ref="V19:W20"/>
+    <mergeCell ref="X19:Y20"/>
+    <mergeCell ref="Z19:AA20"/>
+    <mergeCell ref="AB19:AC20"/>
+    <mergeCell ref="AD19:AE20"/>
+    <mergeCell ref="AF19:AG20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="T21:U22"/>
+    <mergeCell ref="V21:W22"/>
+    <mergeCell ref="X21:Y22"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="AB21:AC22"/>
+    <mergeCell ref="AD21:AE22"/>
+    <mergeCell ref="AF21:AG22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:U35"/>
+    <mergeCell ref="V34:W35"/>
+    <mergeCell ref="X34:Y35"/>
+    <mergeCell ref="Z34:AA35"/>
+    <mergeCell ref="AB34:AC35"/>
+    <mergeCell ref="AD34:AE35"/>
+    <mergeCell ref="AD36:AE37"/>
+    <mergeCell ref="AF36:AG37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="T36:U37"/>
+    <mergeCell ref="V36:W37"/>
+    <mergeCell ref="X36:Y37"/>
+    <mergeCell ref="Z36:AA37"/>
+    <mergeCell ref="AB36:AC37"/>
+    <mergeCell ref="AB38:AC39"/>
     <mergeCell ref="AD38:AE39"/>
     <mergeCell ref="AF38:AG39"/>
-    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:U39"/>
+    <mergeCell ref="V38:W39"/>
+    <mergeCell ref="X38:Y39"/>
+    <mergeCell ref="Z38:AA39"/>
     <mergeCell ref="C40:D41"/>
     <mergeCell ref="E40:F41"/>
     <mergeCell ref="G40:H41"/>
@@ -38064,37 +38819,31 @@
     <mergeCell ref="K40:L41"/>
     <mergeCell ref="M40:N41"/>
     <mergeCell ref="O40:P41"/>
-    <mergeCell ref="O38:P39"/>
-    <mergeCell ref="T38:U39"/>
-    <mergeCell ref="V38:W39"/>
-    <mergeCell ref="X38:Y39"/>
-    <mergeCell ref="Z38:AA39"/>
-    <mergeCell ref="AB38:AC39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:H39"/>
-    <mergeCell ref="I38:J39"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="M38:N39"/>
-    <mergeCell ref="AB40:AC41"/>
     <mergeCell ref="AD40:AE41"/>
     <mergeCell ref="AF40:AG41"/>
-    <mergeCell ref="AH40:AH41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="T40:U41"/>
+    <mergeCell ref="V40:W41"/>
+    <mergeCell ref="X40:Y41"/>
+    <mergeCell ref="Z40:AA41"/>
+    <mergeCell ref="AB40:AC41"/>
     <mergeCell ref="C42:D43"/>
     <mergeCell ref="E42:F43"/>
     <mergeCell ref="G42:H43"/>
     <mergeCell ref="I42:J43"/>
     <mergeCell ref="K42:L43"/>
     <mergeCell ref="M42:N43"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:U41"/>
-    <mergeCell ref="V40:W41"/>
-    <mergeCell ref="X40:Y41"/>
-    <mergeCell ref="Z40:AA41"/>
+    <mergeCell ref="O42:P43"/>
+    <mergeCell ref="AB42:AC43"/>
     <mergeCell ref="AD42:AE43"/>
     <mergeCell ref="AF42:AG43"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:U43"/>
+    <mergeCell ref="V42:W43"/>
+    <mergeCell ref="X42:Y43"/>
+    <mergeCell ref="Z42:AA43"/>
     <mergeCell ref="C44:D45"/>
     <mergeCell ref="E44:F45"/>
     <mergeCell ref="G44:H45"/>
@@ -38102,78 +38851,20 @@
     <mergeCell ref="K44:L45"/>
     <mergeCell ref="M44:N45"/>
     <mergeCell ref="O44:P45"/>
-    <mergeCell ref="O42:P43"/>
-    <mergeCell ref="T42:U43"/>
-    <mergeCell ref="V42:W43"/>
-    <mergeCell ref="X42:Y43"/>
-    <mergeCell ref="Z42:AA43"/>
-    <mergeCell ref="AB42:AC43"/>
-    <mergeCell ref="AB44:AC45"/>
     <mergeCell ref="AD44:AE45"/>
     <mergeCell ref="AF44:AG45"/>
-    <mergeCell ref="AH44:AH45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="M46:N47"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="S44:S45"/>
     <mergeCell ref="T44:U45"/>
     <mergeCell ref="V44:W45"/>
     <mergeCell ref="X44:Y45"/>
     <mergeCell ref="Z44:AA45"/>
-    <mergeCell ref="AD46:AE47"/>
-    <mergeCell ref="AF46:AG47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="G48:H49"/>
-    <mergeCell ref="I48:J49"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="M48:N49"/>
-    <mergeCell ref="O48:P49"/>
-    <mergeCell ref="O46:P47"/>
-    <mergeCell ref="T46:U47"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:Y47"/>
-    <mergeCell ref="Z46:AA47"/>
-    <mergeCell ref="AB46:AC47"/>
-    <mergeCell ref="AB48:AC49"/>
-    <mergeCell ref="AD48:AE49"/>
-    <mergeCell ref="AF48:AG49"/>
-    <mergeCell ref="AH48:AH49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="I50:J51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="M50:N51"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="T48:U49"/>
-    <mergeCell ref="V48:W49"/>
-    <mergeCell ref="X48:Y49"/>
-    <mergeCell ref="Z48:AA49"/>
-    <mergeCell ref="AD50:AE51"/>
-    <mergeCell ref="AF50:AG51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="O50:P51"/>
-    <mergeCell ref="T50:U51"/>
-    <mergeCell ref="V50:W51"/>
-    <mergeCell ref="X50:Y51"/>
-    <mergeCell ref="Z50:AA51"/>
-    <mergeCell ref="AB50:AC51"/>
+    <mergeCell ref="AB44:AC45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0.02" top="0" bottom="0.02" header="0.02" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>